--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Documents\thanzi la onse\lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="444">
   <si>
     <t>Name:</t>
   </si>
@@ -1187,9 +1187,6 @@
     <t>init_p_high_sugar</t>
   </si>
   <si>
-    <t>init_rp_high_salt_rural</t>
-  </si>
-  <si>
     <t>init_p_high_salt_urban</t>
   </si>
   <si>
@@ -1350,15 +1347,34 @@
   </si>
   <si>
     <t xml:space="preserve">r_urban      </t>
+  </si>
+  <si>
+    <t>init_p_low_ex_urban_m</t>
+  </si>
+  <si>
+    <t>init_or_low_ex_rural</t>
+  </si>
+  <si>
+    <t>init_or_low_ex_f</t>
+  </si>
+  <si>
+    <t>init_or_high_salt_rural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1618,130 +1634,133 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2853,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2871,19 +2890,19 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>438</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2940,7 +2959,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="54">
         <v>0.4</v>
@@ -2960,7 +2979,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
@@ -2968,7 +2987,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="54">
         <v>1.5</v>
@@ -2978,7 +2997,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="54">
         <v>1.1000000000000001</v>
@@ -2987,7 +3006,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" s="54">
         <v>1.8</v>
@@ -2996,7 +3015,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="54">
         <v>2.5</v>
@@ -3005,7 +3024,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="54">
         <v>0.7</v>
@@ -3014,7 +3033,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3032,7 +3051,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="54">
         <v>0.2</v>
@@ -3040,8 +3059,8 @@
       <c r="C14" s="52"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
-        <v>386</v>
+      <c r="A15" s="59" t="s">
+        <v>443</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3068,456 +3087,456 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="B18" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="C18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="B19" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="C19" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="D19">
-        <v>0.05</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="52"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="B20" s="54">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="D20">
-        <v>0.25</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="52"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B21" s="54">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="C21" s="52">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B22" s="54">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="C22" s="52">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
-        <v>0.67</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B23" s="54">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C23" s="52">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D23">
-        <v>0.77</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="B24" s="54">
-        <v>0.97</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>23</v>
+        <v>0.03</v>
+      </c>
+      <c r="C24" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="B25" s="54">
-        <v>1.01</v>
-      </c>
-      <c r="C25" s="52"/>
+        <v>0.03</v>
+      </c>
+      <c r="C25" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="D25">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="B26" s="54">
-        <v>1</v>
-      </c>
-      <c r="C26" s="52"/>
+        <v>0.03</v>
+      </c>
+      <c r="C26" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="B27" s="54">
-        <v>1</v>
-      </c>
-      <c r="C27" s="52"/>
+        <v>0.97</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B28" s="54">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B29" s="54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B30" s="54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B31" s="54">
-        <v>1.0049999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="B32" s="54">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
       <c r="C32" s="52"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B33" s="54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C33" s="52"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B34" s="54">
-        <v>0.9</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C34" s="52"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="B35" s="54">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="C35" s="52"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B36" s="54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C36" s="52"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B37" s="54">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B38" s="54">
-        <v>1.48</v>
+        <v>0.85</v>
       </c>
       <c r="C38" s="52"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="B39" s="54">
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
       <c r="C39" s="52"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B40" s="54">
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="C40" s="52"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="B41" s="54">
-        <v>1.7000000000000001E-2</v>
+        <v>1.48</v>
       </c>
       <c r="C41" s="52"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="B42" s="52">
-        <v>8.6</v>
+        <v>357</v>
+      </c>
+      <c r="B42" s="54">
+        <v>0.04</v>
       </c>
       <c r="C42" s="52"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="B43" s="52">
-        <v>0.25700000000000001</v>
+        <v>427</v>
+      </c>
+      <c r="B43" s="54">
+        <v>4.5</v>
       </c>
       <c r="C43" s="52"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B44" s="52">
-        <v>3.6</v>
+        <v>358</v>
+      </c>
+      <c r="B44" s="54">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C44" s="52"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="B45" s="52">
-        <v>0.47799999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="C45" s="52"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="B46" s="52">
-        <v>1.06</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C46" s="52"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B47" s="52">
-        <v>5.0000000000000001E-4</v>
+        <v>3.6</v>
       </c>
       <c r="C47" s="52"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B48" s="52">
-        <v>1.0000000000000001E-5</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C48" s="52"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B49" s="54">
+        <v>430</v>
+      </c>
+      <c r="B49" s="52">
+        <v>1.06</v>
+      </c>
+      <c r="C49" s="52"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="B50" s="52">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C49" s="52"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" s="54">
-        <v>1.5</v>
-      </c>
       <c r="C50" s="52"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="54">
-        <v>3</v>
+      <c r="A51" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="52">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C51" s="52"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="56" t="s">
-        <v>407</v>
+      <c r="A52" s="53" t="s">
+        <v>387</v>
       </c>
       <c r="B52" s="54">
-        <v>1.8</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C52" s="52"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="56" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B53" s="54">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="56" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B54" s="54">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="C54" s="52"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="56" t="s">
         <v>393</v>
       </c>
-      <c r="B55" s="54">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C55" s="52"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="B56" s="54">
-        <v>1.2</v>
-      </c>
-      <c r="C56" s="52"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="53" t="s">
-        <v>389</v>
-      </c>
       <c r="B57" s="54">
-        <v>1E-3</v>
+        <v>0.7</v>
       </c>
       <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="56" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B58" s="54">
-        <v>0.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C58" s="52"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="56" t="s">
-        <v>396</v>
+      <c r="A59" s="53" t="s">
+        <v>391</v>
       </c>
       <c r="B59" s="54">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="56" t="s">
-        <v>400</v>
+      <c r="A60" s="53" t="s">
+        <v>388</v>
       </c>
       <c r="B60" s="54">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C60" s="52"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="56" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B61" s="54">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B62" s="54">
-        <v>1E-4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="57" t="s">
-        <v>405</v>
+      <c r="A63" s="56" t="s">
+        <v>399</v>
       </c>
       <c r="B63" s="54">
-        <v>1.1000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C63" s="52"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B64" s="54">
-        <v>1E-4</v>
+        <v>1.5</v>
       </c>
       <c r="C64" s="52"/>
     </row>
@@ -3531,17 +3550,17 @@
       <c r="C65" s="52"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="53" t="s">
-        <v>362</v>
+      <c r="A66" s="57" t="s">
+        <v>404</v>
       </c>
       <c r="B66" s="54">
-        <v>1E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C66" s="52"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="53" t="s">
-        <v>363</v>
+      <c r="A67" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="B67" s="54">
         <v>1E-4</v>
@@ -3549,235 +3568,235 @@
       <c r="C67" s="52"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="53" t="s">
-        <v>399</v>
+      <c r="A68" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B68" s="54">
-        <v>1.1000000000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="C68" s="52"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="B69" s="52">
-        <v>0.6</v>
+        <v>362</v>
+      </c>
+      <c r="B69" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="B70" s="52">
-        <v>2</v>
+        <v>363</v>
+      </c>
+      <c r="B70" s="54">
+        <v>1E-4</v>
       </c>
       <c r="C70" s="52"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="B71" s="52">
-        <v>4.0000000000000002E-4</v>
+        <v>398</v>
+      </c>
+      <c r="B71" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C71" s="52"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B72" s="52">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C72" s="52"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B73" s="52">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="52"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B74" s="52">
-        <v>1.2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C74" s="52"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B75" s="52">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C75" s="52"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="B76" s="54">
-        <v>1.3</v>
+        <v>368</v>
+      </c>
+      <c r="B76" s="52">
+        <v>0.1</v>
       </c>
       <c r="C76" s="52"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="B77" s="54">
-        <v>1.1000000000000001</v>
+      <c r="A77" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="52">
+        <v>1.2</v>
       </c>
       <c r="C77" s="52"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="B78" s="54">
-        <v>3.0000000000000001E-3</v>
+        <v>370</v>
+      </c>
+      <c r="B78" s="52">
+        <v>1.5</v>
       </c>
       <c r="C78" s="52"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B79" s="54">
-        <v>0</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="C79" s="52"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="53" t="s">
-        <v>374</v>
+      <c r="A80" s="56" t="s">
+        <v>396</v>
       </c>
       <c r="B80" s="54">
-        <v>7.0000000000000007E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C80" s="52"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="B81" s="54">
-        <v>1.1000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C81" s="52"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B82" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="C82" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B83" s="54">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C83" s="52"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B84" s="54">
-        <v>1E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C84" s="52"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="B85" s="52">
-        <v>1.5</v>
+        <v>375</v>
+      </c>
+      <c r="B85" s="54">
+        <v>0.03</v>
       </c>
       <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="B86" s="52">
-        <v>0.94</v>
+        <v>376</v>
+      </c>
+      <c r="B86" s="54">
+        <v>0.01</v>
       </c>
       <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="52">
-        <v>1.01</v>
+        <v>377</v>
+      </c>
+      <c r="B87" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B88" s="52">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="B89" s="52">
-        <v>1.45</v>
+        <v>0.94</v>
       </c>
       <c r="C89" s="52"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B90" s="52">
-        <v>1E-3</v>
+        <v>1.01</v>
       </c>
       <c r="C90" s="52"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B91" s="52">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="C91" s="52"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="B92" s="52">
-        <v>1E-3</v>
+        <v>1.45</v>
       </c>
       <c r="C92" s="52"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B93" s="52">
         <v>1E-3</v>
@@ -3785,15 +3804,42 @@
       <c r="C93" s="52"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="51"/>
+      <c r="A94" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C94" s="52"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="51" t="s">
+      <c r="A95" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C95" s="52"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C96" s="52"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="51"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="51"/>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Documents\thanzi la onse\lifestyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="435">
   <si>
     <t>Name:</t>
   </si>
@@ -1064,39 +1064,6 @@
     <t>parameter_name</t>
   </si>
   <si>
-    <t xml:space="preserve">init_p_urban    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_wealth_urban   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_wealth_rural   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_ex_alc_m    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_ex_alc_f    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_age1520    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_age2030    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_age4050   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_age3040   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_age5060  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_dist_mar_stat_agege60   </t>
-  </si>
-  <si>
     <t xml:space="preserve">init_prop_age2030_w5_some_ed_sec   </t>
   </si>
   <si>
@@ -1115,75 +1082,6 @@
     <t xml:space="preserve">r_rural   </t>
   </si>
   <si>
-    <t xml:space="preserve">r_low_ex    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_not_low_ex    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_low_ex_f  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_low_ex_urban    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_tob    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_not_tob   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_tob_f   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_tob_age2039    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_tob_agege40    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_tob_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_ex_alc    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_not_ex_alc    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_ex_alc_f   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_mar   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_div_wid   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_stop_ed    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_stop_ed_lower_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_ed_primary    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_ed_secondary    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_improved_sanitation    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_clean_drinking_water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_non_wood_burn_stove    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_access_handwashing    </t>
-  </si>
-  <si>
     <t>init_p_high_sugar</t>
   </si>
   <si>
@@ -1271,24 +1169,6 @@
     <t>init_or_higher_bmi_per_higher_wealth</t>
   </si>
   <si>
-    <t xml:space="preserve">init_or_some_ed_age0513    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_age1320   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_age3040    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_age4050    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_age5060    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_agege60    </t>
-  </si>
-  <si>
     <t xml:space="preserve">init_or_some_ed_per_higher_wealth    </t>
   </si>
   <si>
@@ -1322,15 +1202,6 @@
     <t xml:space="preserve">init_or_no_access_handwashing_per_lower_wealth    </t>
   </si>
   <si>
-    <t xml:space="preserve">or_ed_primary_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">or+A65_ed_secondary_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_higher_bmi_f      </t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -1359,6 +1230,108 @@
   </si>
   <si>
     <t>init_or_high_salt_rural</t>
+  </si>
+  <si>
+    <t>init_or_higher_bmi_f</t>
+  </si>
+  <si>
+    <t>init_dist_mar_stat_age1520</t>
+  </si>
+  <si>
+    <t>init_age2030_w5_some_ed</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age0513</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age1320</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age3040</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age4050</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age5060</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_agege60</t>
+  </si>
+  <si>
+    <t>rr_tob_wealth</t>
+  </si>
+  <si>
+    <t>rr_tob_agege40</t>
+  </si>
+  <si>
+    <t>rr_tob_age2039</t>
+  </si>
+  <si>
+    <t>rr_tob_f</t>
+  </si>
+  <si>
+    <t>r_not_tob</t>
+  </si>
+  <si>
+    <t>r_tob</t>
+  </si>
+  <si>
+    <t>rr_low_ex_urban</t>
+  </si>
+  <si>
+    <t>rr_low_ex_f</t>
+  </si>
+  <si>
+    <t>r_not_low_ex</t>
+  </si>
+  <si>
+    <t>r_low_ex</t>
+  </si>
+  <si>
+    <t>r_ex_alc</t>
+  </si>
+  <si>
+    <t>r_not_ex_alc</t>
+  </si>
+  <si>
+    <t>rr_ex_alc_f</t>
+  </si>
+  <si>
+    <t>r_mar</t>
+  </si>
+  <si>
+    <t>r_div_wid</t>
+  </si>
+  <si>
+    <t>r_stop_ed</t>
+  </si>
+  <si>
+    <t>rr_stop_ed_lower_wealth</t>
+  </si>
+  <si>
+    <t>p_ed_primary</t>
+  </si>
+  <si>
+    <t>or_ed_primary_higher_wealth</t>
+  </si>
+  <si>
+    <t>p_ed_secondary</t>
+  </si>
+  <si>
+    <t>or+A65_ed_secondary_higher_wealth</t>
+  </si>
+  <si>
+    <t>r_improved_sanitation</t>
+  </si>
+  <si>
+    <t>r_clean_drinking_water</t>
+  </si>
+  <si>
+    <t>r_non_wood_burn_stove</t>
+  </si>
+  <si>
+    <t>r_access_handwashing</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1750,9 +1723,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -2875,7 +2845,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2890,36 +2860,36 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
-        <v>345</v>
+        <v>142</v>
       </c>
       <c r="B2" s="54">
         <v>0.17</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="B3" s="54">
         <v>0.75</v>
@@ -2939,7 +2909,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="B4" s="54">
         <v>0.11</v>
@@ -2958,8 +2928,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
-        <v>405</v>
+      <c r="A5" s="58" t="s">
+        <v>371</v>
       </c>
       <c r="B5" s="54">
         <v>0.4</v>
@@ -2978,16 +2948,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>433</v>
+      <c r="A6" s="58" t="s">
+        <v>401</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>408</v>
+      <c r="A7" s="58" t="s">
+        <v>374</v>
       </c>
       <c r="B7" s="54">
         <v>1.5</v>
@@ -2996,8 +2966,8 @@
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
-        <v>409</v>
+      <c r="A8" s="58" t="s">
+        <v>375</v>
       </c>
       <c r="B8" s="54">
         <v>1.1000000000000001</v>
@@ -3005,8 +2975,8 @@
       <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
-        <v>410</v>
+      <c r="A9" s="58" t="s">
+        <v>376</v>
       </c>
       <c r="B9" s="54">
         <v>1.8</v>
@@ -3014,8 +2984,8 @@
       <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
-        <v>411</v>
+      <c r="A10" s="58" t="s">
+        <v>377</v>
       </c>
       <c r="B10" s="54">
         <v>2.5</v>
@@ -3023,8 +2993,8 @@
       <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
-        <v>412</v>
+      <c r="A11" s="58" t="s">
+        <v>378</v>
       </c>
       <c r="B11" s="54">
         <v>0.7</v>
@@ -3032,8 +3002,8 @@
       <c r="C11" s="52"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
-        <v>413</v>
+      <c r="A12" s="58" t="s">
+        <v>379</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3041,8 +3011,8 @@
       <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="s">
-        <v>385</v>
+      <c r="A13" s="58" t="s">
+        <v>351</v>
       </c>
       <c r="B13" s="54">
         <v>0.4</v>
@@ -3050,8 +3020,8 @@
       <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
-        <v>386</v>
+      <c r="A14" s="58" t="s">
+        <v>352</v>
       </c>
       <c r="B14" s="54">
         <v>0.2</v>
@@ -3059,8 +3029,8 @@
       <c r="C14" s="52"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
-        <v>443</v>
+      <c r="A15" s="58" t="s">
+        <v>400</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3069,7 +3039,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="53" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B16" s="54">
         <v>0.15</v>
@@ -3078,7 +3048,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="53" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B17" s="54">
         <v>0.01</v>
@@ -3087,7 +3057,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="B18" s="54">
         <v>0.32</v>
@@ -3096,7 +3066,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="B19" s="54">
         <v>0.4</v>
@@ -3105,7 +3075,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="B20" s="54">
         <v>0.6</v>
@@ -3114,7 +3084,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="B21" s="54">
         <v>0.7</v>
@@ -3128,7 +3098,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="B22" s="54">
         <v>0.15</v>
@@ -3142,7 +3112,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="B23" s="54">
         <v>0.05</v>
@@ -3156,7 +3126,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>352</v>
+        <v>145</v>
       </c>
       <c r="B24" s="54">
         <v>0.03</v>
@@ -3170,7 +3140,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
-        <v>354</v>
+        <v>146</v>
       </c>
       <c r="B25" s="54">
         <v>0.03</v>
@@ -3184,7 +3154,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="B26" s="54">
         <v>0.03</v>
@@ -3198,7 +3168,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
       <c r="B27" s="54">
         <v>0.97</v>
@@ -3209,7 +3179,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B28" s="54">
         <v>1.01</v>
@@ -3218,7 +3188,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -3227,7 +3197,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3236,7 +3206,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B31" s="54">
         <v>0.99</v>
@@ -3245,7 +3215,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B32" s="54">
         <v>0.99</v>
@@ -3254,7 +3224,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B33" s="54">
         <v>0.98</v>
@@ -3263,7 +3233,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B34" s="54">
         <v>1.0049999999999999</v>
@@ -3272,7 +3242,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B35" s="54">
         <v>0.2</v>
@@ -3281,7 +3251,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B36" s="54">
         <v>1</v>
@@ -3290,7 +3260,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B37" s="54">
         <v>0.9</v>
@@ -3299,7 +3269,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="B38" s="54">
         <v>0.85</v>
@@ -3308,7 +3278,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B39" s="54">
         <v>0.8</v>
@@ -3317,7 +3287,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="B40" s="54">
         <v>0.75</v>
@@ -3326,7 +3296,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B41" s="54">
         <v>1.48</v>
@@ -3335,7 +3305,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B42" s="54">
         <v>0.04</v>
@@ -3344,7 +3314,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B43" s="54">
         <v>4.5</v>
@@ -3353,7 +3323,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B44" s="54">
         <v>1.7000000000000001E-2</v>
@@ -3362,7 +3332,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="B45" s="52">
         <v>8.6</v>
@@ -3371,7 +3341,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B46" s="52">
         <v>0.25700000000000001</v>
@@ -3380,7 +3350,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="B47" s="52">
         <v>3.6</v>
@@ -3389,7 +3359,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B48" s="52">
         <v>0.47799999999999998</v>
@@ -3398,7 +3368,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B49" s="52">
         <v>1.06</v>
@@ -3407,7 +3377,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="B50" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3416,7 +3386,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B51" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3425,7 +3395,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B52" s="54">
         <v>5.0000000000000001E-4</v>
@@ -3433,8 +3403,8 @@
       <c r="C52" s="52"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="56" t="s">
-        <v>390</v>
+      <c r="A53" s="55" t="s">
+        <v>356</v>
       </c>
       <c r="B53" s="54">
         <v>1.5</v>
@@ -3442,8 +3412,8 @@
       <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="56" t="s">
-        <v>389</v>
+      <c r="A54" s="55" t="s">
+        <v>355</v>
       </c>
       <c r="B54" s="54">
         <v>3</v>
@@ -3451,8 +3421,8 @@
       <c r="C54" s="52"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="56" t="s">
-        <v>406</v>
+      <c r="A55" s="55" t="s">
+        <v>372</v>
       </c>
       <c r="B55" s="54">
         <v>1.8</v>
@@ -3460,8 +3430,8 @@
       <c r="C55" s="52"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="56" t="s">
-        <v>407</v>
+      <c r="A56" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="B56" s="54">
         <v>2.5</v>
@@ -3469,8 +3439,8 @@
       <c r="C56" s="52"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="56" t="s">
-        <v>393</v>
+      <c r="A57" s="55" t="s">
+        <v>359</v>
       </c>
       <c r="B57" s="54">
         <v>0.7</v>
@@ -3478,8 +3448,8 @@
       <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="56" t="s">
-        <v>392</v>
+      <c r="A58" s="55" t="s">
+        <v>358</v>
       </c>
       <c r="B58" s="54">
         <v>1.1499999999999999</v>
@@ -3488,7 +3458,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B59" s="54">
         <v>1.2</v>
@@ -3497,7 +3467,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B60" s="54">
         <v>1E-3</v>
@@ -3505,8 +3475,8 @@
       <c r="C60" s="52"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="56" t="s">
-        <v>394</v>
+      <c r="A61" s="55" t="s">
+        <v>360</v>
       </c>
       <c r="B61" s="54">
         <v>0.8</v>
@@ -3514,8 +3484,8 @@
       <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="56" t="s">
-        <v>395</v>
+      <c r="A62" s="55" t="s">
+        <v>361</v>
       </c>
       <c r="B62" s="54">
         <v>1.1000000000000001</v>
@@ -3523,8 +3493,8 @@
       <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="56" t="s">
-        <v>399</v>
+      <c r="A63" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="B63" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3532,8 +3502,8 @@
       <c r="C63" s="52"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="56" t="s">
-        <v>400</v>
+      <c r="A64" s="55" t="s">
+        <v>366</v>
       </c>
       <c r="B64" s="54">
         <v>1.5</v>
@@ -3541,8 +3511,8 @@
       <c r="C64" s="52"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="56" t="s">
-        <v>403</v>
+      <c r="A65" s="55" t="s">
+        <v>369</v>
       </c>
       <c r="B65" s="54">
         <v>1E-4</v>
@@ -3550,8 +3520,8 @@
       <c r="C65" s="52"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="57" t="s">
-        <v>404</v>
+      <c r="A66" s="56" t="s">
+        <v>370</v>
       </c>
       <c r="B66" s="54">
         <v>1.1000000000000001</v>
@@ -3559,8 +3529,8 @@
       <c r="C66" s="52"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="56" t="s">
-        <v>401</v>
+      <c r="A67" s="55" t="s">
+        <v>367</v>
       </c>
       <c r="B67" s="54">
         <v>1E-4</v>
@@ -3568,8 +3538,8 @@
       <c r="C67" s="52"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="56" t="s">
-        <v>402</v>
+      <c r="A68" s="55" t="s">
+        <v>368</v>
       </c>
       <c r="B68" s="54">
         <v>1E-4</v>
@@ -3578,7 +3548,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="B69" s="54">
         <v>1E-3</v>
@@ -3587,7 +3557,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="B70" s="54">
         <v>1E-4</v>
@@ -3596,7 +3566,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B71" s="54">
         <v>1.1000000000000001</v>
@@ -3605,7 +3575,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="B72" s="52">
         <v>0.6</v>
@@ -3614,7 +3584,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="B73" s="52">
         <v>2</v>
@@ -3623,7 +3593,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="B74" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3632,7 +3602,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="B75" s="52">
         <v>0</v>
@@ -3641,7 +3611,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="B76" s="52">
         <v>0.1</v>
@@ -3650,7 +3620,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B77" s="52">
         <v>1.2</v>
@@ -3659,7 +3629,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="B78" s="52">
         <v>1.5</v>
@@ -3668,7 +3638,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="B79" s="54">
         <v>1.3</v>
@@ -3676,8 +3646,8 @@
       <c r="C79" s="52"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="56" t="s">
-        <v>396</v>
+      <c r="A80" s="55" t="s">
+        <v>362</v>
       </c>
       <c r="B80" s="54">
         <v>1.1000000000000001</v>
@@ -3686,7 +3656,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="B81" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3695,7 +3665,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B82" s="54">
         <v>0</v>
@@ -3706,7 +3676,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="B83" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3715,7 +3685,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B84" s="54">
         <v>1.1000000000000001</v>
@@ -3724,7 +3694,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="B85" s="54">
         <v>0.03</v>
@@ -3733,7 +3703,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="B86" s="54">
         <v>0.01</v>
@@ -3742,7 +3712,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="B87" s="54">
         <v>1E-3</v>
@@ -3751,7 +3721,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="B88" s="52">
         <v>1.5</v>
@@ -3760,7 +3730,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="B89" s="52">
         <v>0.94</v>
@@ -3769,7 +3739,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B90" s="52">
         <v>1.01</v>
@@ -3778,7 +3748,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="B91" s="52">
         <v>0.2</v>
@@ -3787,7 +3757,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B92" s="52">
         <v>1.45</v>
@@ -3796,7 +3766,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B93" s="52">
         <v>1E-3</v>
@@ -3805,7 +3775,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B94" s="52">
         <v>1E-3</v>
@@ -3814,7 +3784,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3823,7 +3793,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="436">
   <si>
     <t>Name:</t>
   </si>
@@ -1319,9 +1319,6 @@
     <t>p_ed_secondary</t>
   </si>
   <si>
-    <t>or+A65_ed_secondary_higher_wealth</t>
-  </si>
-  <si>
     <t>r_improved_sanitation</t>
   </si>
   <si>
@@ -1332,6 +1329,12 @@
   </si>
   <si>
     <t>r_access_handwashing</t>
+  </si>
+  <si>
+    <t>or_ed_secondary_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_age2030</t>
   </si>
 </sst>
 </file>
@@ -2842,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3206,340 +3209,343 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B32" s="54">
         <v>0.99</v>
       </c>
       <c r="C32" s="52"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="C33" s="52"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B34" s="54">
         <v>0.98</v>
       </c>
-      <c r="C33" s="52"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
+      <c r="C34" s="52"/>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B35" s="54">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C34" s="52"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="53" t="s">
+      <c r="C35" s="52"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B36" s="54">
         <v>0.2</v>
       </c>
-      <c r="C35" s="52"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="53" t="s">
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B37" s="54">
         <v>1</v>
       </c>
-      <c r="C36" s="52"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="53" t="s">
+      <c r="C37" s="52"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B38" s="54">
         <v>0.9</v>
       </c>
-      <c r="C37" s="52"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="53" t="s">
+      <c r="C38" s="52"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="B38" s="54">
+      <c r="B39" s="54">
         <v>0.85</v>
       </c>
-      <c r="C38" s="52"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="53" t="s">
+      <c r="C39" s="52"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="B39" s="54">
+      <c r="B40" s="54">
         <v>0.8</v>
       </c>
-      <c r="C39" s="52"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
+      <c r="C40" s="52"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B41" s="54">
         <v>0.75</v>
       </c>
-      <c r="C40" s="52"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="53" t="s">
+      <c r="C41" s="52"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="B41" s="54">
+      <c r="B42" s="54">
         <v>1.48</v>
       </c>
-      <c r="C41" s="52"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="53" t="s">
+      <c r="C42" s="52"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="54">
+      <c r="B43" s="54">
         <v>0.04</v>
       </c>
-      <c r="C42" s="52"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
+      <c r="C43" s="52"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="54">
+      <c r="B44" s="54">
         <v>4.5</v>
       </c>
-      <c r="C43" s="52"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="53" t="s">
+      <c r="C44" s="52"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B44" s="54">
+      <c r="B45" s="54">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C44" s="52"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="53" t="s">
+      <c r="C45" s="52"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B46" s="52">
         <v>8.6</v>
       </c>
-      <c r="C45" s="52"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="53" t="s">
+      <c r="C46" s="52"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B47" s="52">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C46" s="52"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="53" t="s">
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B48" s="52">
         <v>3.6</v>
-      </c>
-      <c r="C47" s="52"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="52">
-        <v>0.47799999999999998</v>
       </c>
       <c r="C48" s="52"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="B49" s="52">
-        <v>1.06</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C49" s="52"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B50" s="52">
-        <v>5.0000000000000001E-4</v>
+        <v>1.06</v>
       </c>
       <c r="C50" s="52"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="B51" s="52">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C51" s="52"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" s="52">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C52" s="52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="B52" s="54">
+      <c r="B53" s="54">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C52" s="52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="B53" s="54">
-        <v>1.5</v>
       </c>
       <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" s="54">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C54" s="52"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B55" s="54">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="C55" s="52"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" s="54">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C56" s="52"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B57" s="54">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="C58" s="52"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="54">
+      <c r="B59" s="54">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="C58" s="52"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="54">
-        <v>1.2</v>
       </c>
       <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="C60" s="52"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B60" s="54">
+      <c r="B61" s="54">
         <v>1E-3</v>
-      </c>
-      <c r="C60" s="52"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="B61" s="54">
-        <v>0.8</v>
       </c>
       <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="54">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B63" s="54">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C63" s="52"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B64" s="54">
-        <v>1.5</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C64" s="52"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="C65" s="52"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="54">
+      <c r="B66" s="54">
         <v>1E-4</v>
       </c>
-      <c r="C65" s="52"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="56" t="s">
+      <c r="C66" s="52"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="B66" s="54">
+      <c r="B67" s="54">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C66" s="52"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="B67" s="54">
-        <v>1E-4</v>
       </c>
       <c r="C67" s="52"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B68" s="54">
         <v>1E-4</v>
@@ -3547,235 +3553,235 @@
       <c r="C68" s="52"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="53" t="s">
-        <v>419</v>
+      <c r="A69" s="55" t="s">
+        <v>368</v>
       </c>
       <c r="B69" s="54">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B70" s="54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C70" s="52"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="B71" s="54">
-        <v>1.1000000000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="C71" s="52"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B72" s="52">
-        <v>0.6</v>
+        <v>364</v>
+      </c>
+      <c r="B72" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C72" s="52"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B73" s="52">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="C73" s="52"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B74" s="52">
-        <v>4.0000000000000002E-4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="52"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B75" s="52">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C75" s="52"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B76" s="52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="52"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B77" s="52">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C77" s="52"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B78" s="52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C78" s="52"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="C79" s="52"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="B79" s="54">
+      <c r="B80" s="54">
         <v>1.3</v>
       </c>
-      <c r="C79" s="52"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="55" t="s">
+      <c r="C80" s="52"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="B80" s="54">
+      <c r="B81" s="54">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C80" s="52"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="53" t="s">
-        <v>420</v>
-      </c>
-      <c r="B81" s="54">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C81" s="52"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B82" s="54">
-        <v>0</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C82" s="52"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" s="54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C83" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="B84" s="54">
-        <v>1.1000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C84" s="52"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="B85" s="54">
-        <v>0.03</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B86" s="54">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B87" s="54">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="B88" s="52">
-        <v>1.5</v>
+        <v>425</v>
+      </c>
+      <c r="B88" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B89" s="52">
-        <v>0.94</v>
+        <v>1.5</v>
       </c>
       <c r="C89" s="52"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B90" s="52">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
       <c r="C90" s="52"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" s="52">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="C91" s="52"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B92" s="52">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="C92" s="52"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B93" s="52">
-        <v>1E-3</v>
+        <v>1.45</v>
       </c>
       <c r="C93" s="52"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B94" s="52">
         <v>1E-3</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3793,23 +3799,32 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
       </c>
       <c r="C96" s="52"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="51"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="51" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C97" s="52"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="51"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="51"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="432">
   <si>
     <t>Name:</t>
   </si>
@@ -1064,24 +1064,6 @@
     <t>parameter_name</t>
   </si>
   <si>
-    <t xml:space="preserve">init_prop_age2030_w5_some_ed_sec   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_unimproved_sanitation   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_no_clean_drinking_water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_wood_burn_stove    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_no_access_handwashing    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_rural   </t>
-  </si>
-  <si>
     <t>init_p_high_sugar</t>
   </si>
   <si>
@@ -1091,24 +1073,12 @@
     <t>r_higher_bmi</t>
   </si>
   <si>
-    <t xml:space="preserve">r_lower_bmi    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_urban </t>
-  </si>
-  <si>
     <t>rr_higher_bmi_high_sugar</t>
   </si>
   <si>
     <t>rr_higher_bmi_per_higher_wealth</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_higher_bmi_tob </t>
-  </si>
-  <si>
     <t>rr_lower_bmi_tob</t>
   </si>
   <si>
@@ -1145,12 +1115,6 @@
     <t>init_p_bmi_urban_m_not_high_sugar_age1529_not_tob_wealth1</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_higher_bmi_age3049 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_agege50 </t>
-  </si>
-  <si>
     <t>init_or_higher_bmi_rural</t>
   </si>
   <si>
@@ -1169,39 +1133,6 @@
     <t>init_or_higher_bmi_per_higher_wealth</t>
   </si>
   <si>
-    <t xml:space="preserve">init_or_some_ed_per_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age1320    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age3040    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age4050    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age5060   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_agege60   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_per_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_unimproved_sanitation_rural    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_no_clean_drinking_water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_wood_burn_stove    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_no_access_handwashing_per_lower_wealth    </t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -1217,9 +1148,6 @@
     <t>value5</t>
   </si>
   <si>
-    <t xml:space="preserve">r_urban      </t>
-  </si>
-  <si>
     <t>init_p_low_ex_urban_m</t>
   </si>
   <si>
@@ -1335,6 +1263,66 @@
   </si>
   <si>
     <t>init_or_some_ed_age2030</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_per_higher_wealt</t>
+  </si>
+  <si>
+    <t>init_prop_age2030_w5_some_ed_sec</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age1320</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age3040</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age4050</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age5060</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_agege60</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_unimproved_sanitation_rural</t>
+  </si>
+  <si>
+    <t>init_or_no_clean_drinking_water</t>
+  </si>
+  <si>
+    <t>init_or_wood_burn_stove</t>
+  </si>
+  <si>
+    <t>init_or_no_access_handwashing_per_lower_wealth</t>
+  </si>
+  <si>
+    <t>r_urban</t>
+  </si>
+  <si>
+    <t>r_rural</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_urban</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_f</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_age3049</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_agege50</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_tob</t>
+  </si>
+  <si>
+    <t>r_lower_bmi</t>
   </si>
 </sst>
 </file>
@@ -2847,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2863,19 +2851,19 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2932,7 +2920,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B5" s="54">
         <v>0.4</v>
@@ -2952,7 +2940,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
@@ -2960,7 +2948,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B7" s="54">
         <v>1.5</v>
@@ -2970,7 +2958,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B8" s="54">
         <v>1.1000000000000001</v>
@@ -2979,7 +2967,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B9" s="54">
         <v>1.8</v>
@@ -2988,7 +2976,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B10" s="54">
         <v>2.5</v>
@@ -2997,7 +2985,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B11" s="54">
         <v>0.7</v>
@@ -3006,7 +2994,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3015,7 +3003,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B13" s="54">
         <v>0.4</v>
@@ -3024,7 +3012,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B14" s="54">
         <v>0.2</v>
@@ -3033,7 +3021,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3060,7 +3048,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B18" s="54">
         <v>0.32</v>
@@ -3069,7 +3057,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B19" s="54">
         <v>0.4</v>
@@ -3078,7 +3066,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B20" s="54">
         <v>0.6</v>
@@ -3087,7 +3075,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B21" s="54">
         <v>0.7</v>
@@ -3171,7 +3159,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B27" s="54">
         <v>0.97</v>
@@ -3182,7 +3170,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B28" s="54">
         <v>1.01</v>
@@ -3191,7 +3179,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -3200,7 +3188,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3209,7 +3197,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B31" s="54">
         <v>1</v>
@@ -3218,7 +3206,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="B32" s="54">
         <v>0.99</v>
@@ -3227,7 +3215,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B33" s="54">
         <v>0.99</v>
@@ -3236,7 +3224,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B34" s="54">
         <v>0.98</v>
@@ -3248,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3257,7 +3245,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3266,7 +3254,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3275,7 +3263,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3284,7 +3272,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3293,7 +3281,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3302,7 +3290,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3311,7 +3299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3320,7 +3308,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="B43" s="54">
         <v>0.04</v>
@@ -3329,7 +3317,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3338,7 +3326,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="B45" s="54">
         <v>1.7000000000000001E-2</v>
@@ -3347,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3356,7 +3344,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="B47" s="52">
         <v>0.25700000000000001</v>
@@ -3365,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3374,7 +3362,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B49" s="52">
         <v>0.47799999999999998</v>
@@ -3383,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3392,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3401,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3410,7 +3398,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B53" s="54">
         <v>5.0000000000000001E-4</v>
@@ -3419,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3428,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>355</v>
+        <v>427</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3437,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3446,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3455,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3464,7 +3452,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B59" s="54">
         <v>1.1499999999999999</v>
@@ -3473,7 +3461,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B60" s="54">
         <v>1.2</v>
@@ -3482,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>
@@ -3491,7 +3479,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B62" s="54">
         <v>0.8</v>
@@ -3500,7 +3488,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B63" s="54">
         <v>1.1000000000000001</v>
@@ -3509,7 +3497,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B64" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3518,7 +3506,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B65" s="54">
         <v>1.5</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B66" s="54">
         <v>1E-4</v>
@@ -3536,7 +3524,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="56" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B67" s="54">
         <v>1.1000000000000001</v>
@@ -3545,7 +3533,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B68" s="54">
         <v>1E-4</v>
@@ -3554,7 +3542,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="55" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B69" s="54">
         <v>1E-4</v>
@@ -3563,7 +3551,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B70" s="54">
         <v>1E-3</v>
@@ -3572,7 +3560,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B71" s="54">
         <v>1E-4</v>
@@ -3581,7 +3569,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B72" s="54">
         <v>1.1000000000000001</v>
@@ -3590,7 +3578,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B73" s="52">
         <v>0.6</v>
@@ -3599,7 +3587,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B74" s="52">
         <v>2</v>
@@ -3608,7 +3596,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="B75" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3617,7 +3605,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B76" s="52">
         <v>0</v>
@@ -3626,7 +3614,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B77" s="52">
         <v>0.1</v>
@@ -3635,7 +3623,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B78" s="52">
         <v>1.2</v>
@@ -3644,7 +3632,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B79" s="52">
         <v>1.5</v>
@@ -3653,7 +3641,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B80" s="54">
         <v>1.3</v>
@@ -3662,7 +3650,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="55" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B81" s="54">
         <v>1.1000000000000001</v>
@@ -3671,7 +3659,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B82" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3680,7 +3668,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="B83" s="54">
         <v>0</v>
@@ -3691,7 +3679,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B84" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3700,7 +3688,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B85" s="54">
         <v>1.1000000000000001</v>
@@ -3709,7 +3697,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B86" s="54">
         <v>0.03</v>
@@ -3718,7 +3706,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B87" s="54">
         <v>0.01</v>
@@ -3727,7 +3715,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B88" s="54">
         <v>1E-3</v>
@@ -3736,7 +3724,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B89" s="52">
         <v>1.5</v>
@@ -3745,7 +3733,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="B90" s="52">
         <v>0.94</v>
@@ -3754,7 +3742,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B91" s="52">
         <v>1.01</v>
@@ -3763,7 +3751,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B92" s="52">
         <v>0.2</v>
@@ -3772,7 +3760,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B93" s="52">
         <v>1.45</v>
@@ -3781,7 +3769,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B94" s="52">
         <v>1E-3</v>
@@ -3790,7 +3778,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3799,7 +3787,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3808,7 +3796,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1265,9 +1265,6 @@
     <t>init_or_some_ed_age2030</t>
   </si>
   <si>
-    <t>init_or_some_ed_per_higher_wealt</t>
-  </si>
-  <si>
     <t>init_prop_age2030_w5_some_ed_sec</t>
   </si>
   <si>
@@ -1323,6 +1320,9 @@
   </si>
   <si>
     <t>r_lower_bmi</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_per_higher_wealth</t>
   </si>
 </sst>
 </file>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1289,9 +1289,6 @@
     <t>init_or_unimproved_sanitation_rural</t>
   </si>
   <si>
-    <t>init_or_no_clean_drinking_water</t>
-  </si>
-  <si>
     <t>init_or_wood_burn_stove</t>
   </si>
   <si>
@@ -1323,6 +1320,9 @@
   </si>
   <si>
     <t>init_or_some_ed_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_no_clean_drinking_water_rural</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2836,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1289,9 +1289,6 @@
     <t>init_or_unimproved_sanitation_rural</t>
   </si>
   <si>
-    <t>init_or_wood_burn_stove</t>
-  </si>
-  <si>
     <t>init_or_no_access_handwashing_per_lower_wealth</t>
   </si>
   <si>
@@ -1323,6 +1320,9 @@
   </si>
   <si>
     <t>init_or_no_clean_drinking_water_rural</t>
+  </si>
+  <si>
+    <t>init_or_wood_burn_stove_rural</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2836,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1109,9 +1109,6 @@
     <t>r_not_high_salt</t>
   </si>
   <si>
-    <t>rr_not_low_salt_pop_advice_salt</t>
-  </si>
-  <si>
     <t>init_p_bmi_urban_m_not_high_sugar_age1529_not_tob_wealth1</t>
   </si>
   <si>
@@ -1323,6 +1320,9 @@
   </si>
   <si>
     <t>init_or_wood_burn_stove_rural</t>
+  </si>
+  <si>
+    <t>rr_not_high_salt_pop_advice_salt</t>
   </si>
 </sst>
 </file>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2851,19 +2851,19 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>371</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="54">
         <v>0.4</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="54">
         <v>1.5</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="54">
         <v>1.1000000000000001</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="54">
         <v>1.8</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="54">
         <v>2.5</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="54">
         <v>0.7</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="54">
         <v>0.32</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" s="54">
         <v>0.4</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="54">
         <v>0.6</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" s="54">
         <v>0.7</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="54">
         <v>0.97</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B28" s="54">
         <v>1.01</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B31" s="54">
         <v>1</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" s="54">
         <v>0.99</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B33" s="54">
         <v>0.99</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B34" s="54">
         <v>0.98</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="56" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="B67" s="54">
         <v>1.1000000000000001</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B70" s="54">
         <v>1E-3</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B71" s="54">
         <v>1E-4</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B73" s="52">
         <v>0.6</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B74" s="52">
         <v>2</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B75" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="52">
         <v>0</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B77" s="52">
         <v>0.1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B78" s="52">
         <v>1.2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B79" s="52">
         <v>1.5</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" s="54">
         <v>1.3</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="54">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B84" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B86" s="54">
         <v>0.03</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B87" s="54">
         <v>0.01</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B88" s="54">
         <v>1E-3</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B89" s="52">
         <v>1.5</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B90" s="52">
         <v>0.94</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B91" s="52">
         <v>1.01</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B92" s="52">
         <v>0.2</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B93" s="52">
         <v>1.45</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B94" s="52">
         <v>1E-3</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="433">
   <si>
     <t>Name:</t>
   </si>
@@ -1323,6 +1323,9 @@
   </si>
   <si>
     <t>rr_not_high_salt_pop_advice_salt</t>
+  </si>
+  <si>
+    <t>rr_not_high_sugar_pop_advice_sugar</t>
   </si>
 </sst>
 </file>
@@ -2833,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3550,235 +3553,235 @@
       <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="53" t="s">
-        <v>394</v>
+      <c r="A70" s="55" t="s">
+        <v>432</v>
       </c>
       <c r="B70" s="54">
-        <v>1E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C70" s="52"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" s="54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C71" s="52"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B72" s="54">
-        <v>1.1000000000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="C72" s="52"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="B73" s="52">
-        <v>0.6</v>
+        <v>354</v>
+      </c>
+      <c r="B73" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C73" s="52"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B74" s="52">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="C74" s="52"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B75" s="52">
-        <v>4.0000000000000002E-4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="52"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" s="52">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C76" s="52"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B77" s="52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="52"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B78" s="52">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C78" s="52"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B79" s="52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C79" s="52"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="C80" s="52"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B80" s="54">
+      <c r="B81" s="54">
         <v>1.3</v>
       </c>
-      <c r="C80" s="52"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="55" t="s">
+      <c r="C81" s="52"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="B81" s="54">
+      <c r="B82" s="54">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C81" s="52"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="B82" s="54">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C82" s="52"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B83" s="54">
-        <v>0</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C83" s="52"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B84" s="54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C84" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B85" s="54">
-        <v>1.1000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B86" s="54">
-        <v>0.03</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B87" s="54">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="54">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="B89" s="52">
-        <v>1.5</v>
+        <v>400</v>
+      </c>
+      <c r="B89" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C89" s="52"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B90" s="52">
-        <v>0.94</v>
+        <v>1.5</v>
       </c>
       <c r="C90" s="52"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B91" s="52">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
       <c r="C91" s="52"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B92" s="52">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="C92" s="52"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B93" s="52">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="C93" s="52"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B94" s="52">
-        <v>1E-3</v>
+        <v>1.45</v>
       </c>
       <c r="C94" s="52"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3796,7 +3799,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>
@@ -3804,15 +3807,24 @@
       <c r="C97" s="52"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="51"/>
+      <c r="A98" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C98" s="52"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="51"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="51"/>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2838,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1238,9 +1238,6 @@
     <t>p_ed_primary</t>
   </si>
   <si>
-    <t>or_ed_primary_higher_wealth</t>
-  </si>
-  <si>
     <t>p_ed_secondary</t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>r_access_handwashing</t>
   </si>
   <si>
-    <t>or_ed_secondary_higher_wealth</t>
-  </si>
-  <si>
     <t>init_or_some_ed_age2030</t>
   </si>
   <si>
@@ -1326,6 +1320,12 @@
   </si>
   <si>
     <t>rr_not_high_sugar_pop_advice_sugar</t>
+  </si>
+  <si>
+    <t>pr_ed_secondary_higher_wealth</t>
+  </si>
+  <si>
+    <t>pr_ed_primary_higher_wealth</t>
   </si>
 </sst>
 </file>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B67" s="54">
         <v>1.1000000000000001</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="55" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B70" s="54">
         <v>1.1000000000000001</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="B92" s="52">
         <v>1.01</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B93" s="52">
         <v>0.2</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B94" s="52">
         <v>1.45</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B98" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1322,10 +1322,10 @@
     <t>rr_not_high_sugar_pop_advice_sugar</t>
   </si>
   <si>
-    <t>pr_ed_secondary_higher_wealth</t>
-  </si>
-  <si>
-    <t>pr_ed_primary_higher_wealth</t>
+    <t>rp_ed_secondary_higher_wealth</t>
+  </si>
+  <si>
+    <t>rp_ed_primary_higher_wealth</t>
   </si>
 </sst>
 </file>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="441">
   <si>
     <t>Name:</t>
   </si>
@@ -1326,6 +1326,30 @@
   </si>
   <si>
     <t>rp_ed_primary_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_tob_f</t>
+  </si>
+  <si>
+    <t>init_or_tob_age2039_m</t>
+  </si>
+  <si>
+    <t>init_or_tob_agege40_m</t>
+  </si>
+  <si>
+    <t>init_p_tob_age1519_m_wealth1</t>
+  </si>
+  <si>
+    <t>init_or_tob_wealth2</t>
+  </si>
+  <si>
+    <t>init_or_tob_wealth3</t>
+  </si>
+  <si>
+    <t>init_or_tob_wealth4</t>
+  </si>
+  <si>
+    <t>init_or_tob_wealth5</t>
   </si>
 </sst>
 </file>
@@ -2836,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3078,186 +3102,183 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="B21" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="C21" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="B22" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="C22" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="D22">
-        <v>0.05</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="B23" s="54">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="D23">
-        <v>0.25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>145</v>
+        <v>435</v>
       </c>
       <c r="B24" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="C24" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D24">
-        <v>0.47</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="B25" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="C25" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="D25">
-        <v>0.67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>147</v>
+        <v>438</v>
       </c>
       <c r="B26" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="C26" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="D26">
-        <v>0.77</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="B27" s="54">
-        <v>0.97</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="B28" s="54">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="52"/>
+        <v>0.7</v>
+      </c>
+      <c r="C29" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>408</v>
+        <v>84</v>
       </c>
       <c r="B30" s="54">
-        <v>1</v>
-      </c>
-      <c r="C30" s="52"/>
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="B31" s="54">
-        <v>1</v>
-      </c>
-      <c r="C31" s="52"/>
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="B32" s="54">
-        <v>0.99</v>
-      </c>
-      <c r="C32" s="52"/>
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>383</v>
+        <v>146</v>
       </c>
       <c r="B33" s="54">
-        <v>0.99</v>
-      </c>
-      <c r="C33" s="52"/>
+        <v>0.03</v>
+      </c>
+      <c r="C33" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="D33">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>384</v>
+        <v>147</v>
       </c>
       <c r="B34" s="54">
-        <v>0.98</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="E34" t="s">
-        <v>23</v>
+        <v>0.03</v>
+      </c>
+      <c r="C34" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.77</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="B35" s="54">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C35" s="52"/>
+        <v>0.97</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="B36" s="54">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="C36" s="52"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3266,565 +3287,640 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B38" s="54">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C38" s="52"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="B39" s="54">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B40" s="54">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="C40" s="52"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B41" s="54">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="C41" s="52"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B42" s="54">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="C42" s="52"/>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>138</v>
+        <v>426</v>
       </c>
       <c r="B43" s="54">
-        <v>0.04</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C43" s="52"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B44" s="54">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="C44" s="52"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="B45" s="54">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="B46" s="52">
-        <v>8.6</v>
+        <v>411</v>
+      </c>
+      <c r="B46" s="54">
+        <v>0.9</v>
       </c>
       <c r="C46" s="52"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="52">
-        <v>0.25700000000000001</v>
+        <v>412</v>
+      </c>
+      <c r="B47" s="54">
+        <v>0.85</v>
       </c>
       <c r="C47" s="52"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="B48" s="52">
-        <v>3.6</v>
+        <v>413</v>
+      </c>
+      <c r="B48" s="54">
+        <v>0.8</v>
       </c>
       <c r="C48" s="52"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="52">
-        <v>0.47799999999999998</v>
+        <v>414</v>
+      </c>
+      <c r="B49" s="54">
+        <v>0.75</v>
       </c>
       <c r="C49" s="52"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B50" s="52">
-        <v>1.06</v>
+        <v>415</v>
+      </c>
+      <c r="B50" s="54">
+        <v>1.48</v>
       </c>
       <c r="C50" s="52"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="B51" s="52">
-        <v>5.0000000000000001E-4</v>
+        <v>138</v>
+      </c>
+      <c r="B51" s="54">
+        <v>0.04</v>
       </c>
       <c r="C51" s="52"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>419</v>
-      </c>
-      <c r="B52" s="52">
-        <v>1.0000000000000001E-5</v>
+        <v>416</v>
+      </c>
+      <c r="B52" s="54">
+        <v>4.5</v>
       </c>
       <c r="C52" s="52"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="B53" s="54">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C53" s="52"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="52">
+        <v>8.6</v>
+      </c>
+      <c r="C54" s="52"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="52">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="52">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C57" s="52"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" s="52">
+        <v>1.06</v>
+      </c>
+      <c r="C58" s="52"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" s="52">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C53" s="52"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="B54" s="54">
-        <v>1.5</v>
-      </c>
-      <c r="C54" s="52"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="B55" s="54">
-        <v>3</v>
-      </c>
-      <c r="C55" s="52"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="B56" s="54">
-        <v>1.8</v>
-      </c>
-      <c r="C56" s="52"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="B57" s="54">
-        <v>2.5</v>
-      </c>
-      <c r="C57" s="52"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="B58" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="C58" s="52"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="B59" s="54">
-        <v>1.1499999999999999</v>
       </c>
       <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" s="54">
-        <v>1.2</v>
+        <v>419</v>
+      </c>
+      <c r="B60" s="52">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C60" s="52"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="B61" s="54">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="B62" s="54">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="B63" s="54">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="C63" s="52"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="B64" s="54">
-        <v>3.0000000000000001E-3</v>
+        <v>1.8</v>
       </c>
       <c r="C64" s="52"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="B65" s="54">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C65" s="52"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="B66" s="54">
-        <v>1E-4</v>
+        <v>0.7</v>
       </c>
       <c r="C66" s="52"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="56" t="s">
-        <v>429</v>
+      <c r="A67" s="55" t="s">
+        <v>349</v>
       </c>
       <c r="B67" s="54">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C67" s="52"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="55" t="s">
-        <v>357</v>
+      <c r="A68" s="53" t="s">
+        <v>348</v>
       </c>
       <c r="B68" s="54">
-        <v>1E-4</v>
+        <v>1.2</v>
       </c>
       <c r="C68" s="52"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="55" t="s">
-        <v>358</v>
+      <c r="A69" s="53" t="s">
+        <v>425</v>
       </c>
       <c r="B69" s="54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="C70" s="52"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71" s="52"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="54">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="52"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="C73" s="52"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" s="54">
+        <v>1E-4</v>
+      </c>
+      <c r="C74" s="52"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B75" s="54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C75" s="52"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" s="54">
+        <v>1E-4</v>
+      </c>
+      <c r="C76" s="52"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="54">
+        <v>1E-4</v>
+      </c>
+      <c r="C77" s="52"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="B70" s="54">
+      <c r="B78" s="54">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C70" s="52"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="B71" s="54">
-        <v>1E-3</v>
-      </c>
-      <c r="C71" s="52"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="B72" s="54">
-        <v>1E-4</v>
-      </c>
-      <c r="C72" s="52"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="B73" s="54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C73" s="52"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="B74" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="C74" s="52"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="B75" s="52">
-        <v>2</v>
-      </c>
-      <c r="C75" s="52"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="B76" s="52">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="C76" s="52"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="B77" s="52">
-        <v>0</v>
-      </c>
-      <c r="C77" s="52"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B78" s="52">
-        <v>0.1</v>
       </c>
       <c r="C78" s="52"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="B79" s="52">
-        <v>1.2</v>
+        <v>394</v>
+      </c>
+      <c r="B79" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C79" s="52"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="B80" s="52">
-        <v>1.5</v>
+        <v>393</v>
+      </c>
+      <c r="B80" s="54">
+        <v>1E-4</v>
       </c>
       <c r="C80" s="52"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="B81" s="54">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C81" s="52"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="54">
-        <v>1.1000000000000001</v>
+      <c r="A82" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="52">
+        <v>0.6</v>
       </c>
       <c r="C82" s="52"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="B83" s="54">
-        <v>3.0000000000000001E-3</v>
+        <v>391</v>
+      </c>
+      <c r="B83" s="52">
+        <v>2</v>
       </c>
       <c r="C83" s="52"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="B84" s="54">
-        <v>0</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B84" s="52">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C84" s="52"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>397</v>
-      </c>
-      <c r="B85" s="54">
-        <v>7.0000000000000007E-2</v>
+        <v>389</v>
+      </c>
+      <c r="B85" s="52">
+        <v>0</v>
       </c>
       <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="B86" s="54">
-        <v>1.1000000000000001</v>
+        <v>388</v>
+      </c>
+      <c r="B86" s="52">
+        <v>0.1</v>
       </c>
       <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B87" s="54">
-        <v>0.03</v>
+        <v>387</v>
+      </c>
+      <c r="B87" s="52">
+        <v>1.2</v>
       </c>
       <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="B88" s="54">
-        <v>0.01</v>
+        <v>386</v>
+      </c>
+      <c r="B88" s="52">
+        <v>1.5</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B89" s="54">
-        <v>1E-3</v>
+        <v>1.3</v>
       </c>
       <c r="C89" s="52"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="B90" s="52">
-        <v>1.5</v>
+      <c r="A90" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B90" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C90" s="52"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B91" s="52">
-        <v>0.94</v>
+        <v>395</v>
+      </c>
+      <c r="B91" s="54">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C91" s="52"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="B92" s="52">
-        <v>1.01</v>
-      </c>
-      <c r="C92" s="52"/>
+        <v>396</v>
+      </c>
+      <c r="B92" s="54">
+        <v>0</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="B93" s="52">
-        <v>0.2</v>
+        <v>397</v>
+      </c>
+      <c r="B93" s="54">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C93" s="52"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="B94" s="52">
-        <v>1.45</v>
+        <v>353</v>
+      </c>
+      <c r="B94" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C94" s="52"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="B95" s="52">
-        <v>1E-3</v>
+        <v>398</v>
+      </c>
+      <c r="B95" s="54">
+        <v>0.03</v>
       </c>
       <c r="C95" s="52"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B96" s="52">
-        <v>1E-3</v>
+        <v>399</v>
+      </c>
+      <c r="B96" s="54">
+        <v>0.01</v>
       </c>
       <c r="C96" s="52"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" s="52">
+        <v>400</v>
+      </c>
+      <c r="B97" s="54">
         <v>1E-3</v>
       </c>
       <c r="C97" s="52"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="B98" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="C98" s="52"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" s="52">
+        <v>0.94</v>
+      </c>
+      <c r="C99" s="52"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" s="52">
+        <v>1.01</v>
+      </c>
+      <c r="C100" s="52"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B101" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="C101" s="52"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="C102" s="52"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="B103" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C103" s="52"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B104" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C104" s="52"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B105" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C105" s="52"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B106" s="52">
         <v>1E-3</v>
       </c>
-      <c r="C98" s="52"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="51"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="51" t="s">
+      <c r="C106" s="52"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="51"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="51"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1166,24 +1166,6 @@
     <t>init_age2030_w5_some_ed</t>
   </si>
   <si>
-    <t>init_or_some_ed_age0513</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_age1320</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_age3040</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_age4050</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_age5060</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_agege60</t>
-  </si>
-  <si>
     <t>rr_tob_wealth</t>
   </si>
   <si>
@@ -1253,30 +1235,9 @@
     <t>r_access_handwashing</t>
   </si>
   <si>
-    <t>init_or_some_ed_age2030</t>
-  </si>
-  <si>
     <t>init_prop_age2030_w5_some_ed_sec</t>
   </si>
   <si>
-    <t>init_or_some_ed_sec_age1320</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_sec_age3040</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_sec_age4050</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_sec_age5060</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_sec_agege60</t>
-  </si>
-  <si>
-    <t>init_or_some_ed_sec_per_higher_wealth</t>
-  </si>
-  <si>
     <t>init_or_unimproved_sanitation_rural</t>
   </si>
   <si>
@@ -1307,9 +1268,6 @@
     <t>r_lower_bmi</t>
   </si>
   <si>
-    <t>init_or_some_ed_per_higher_wealth</t>
-  </si>
-  <si>
     <t>init_or_no_clean_drinking_water_rural</t>
   </si>
   <si>
@@ -1350,6 +1308,48 @@
   </si>
   <si>
     <t>init_or_tob_wealth5</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_age1320</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age0513</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age1320</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age2030</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age3040</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age4050</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_age5060</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_agege60</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_age3040</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_age4050</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_age5060</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_agege60</t>
+  </si>
+  <si>
+    <t>init_rp_some_ed_sec_per_higher_wealth</t>
   </si>
 </sst>
 </file>
@@ -2862,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B21" s="54">
         <v>0.01</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B22" s="54">
         <v>0.2</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B23" s="54">
         <v>4</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B24" s="54">
         <v>6</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B25" s="54">
         <v>2</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B26" s="54">
         <v>3</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B27" s="54">
         <v>4</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B28" s="54">
         <v>5</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="B36" s="54">
         <v>1.01</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B38" s="54">
         <v>1</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B39" s="54">
         <v>1</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B40" s="54">
         <v>0.99</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B41" s="54">
         <v>0.99</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B42" s="54">
         <v>0.98</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B43" s="54">
         <v>1.0049999999999999</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B44" s="54">
         <v>0.2</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B45" s="54">
         <v>1</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B46" s="54">
         <v>0.9</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="B47" s="54">
         <v>0.85</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B48" s="54">
         <v>0.8</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="B49" s="54">
         <v>0.75</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B50" s="54">
         <v>1.48</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B52" s="54">
         <v>4.5</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B54" s="52">
         <v>8.6</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="53" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B56" s="52">
         <v>3.6</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="53" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B58" s="52">
         <v>1.06</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B59" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B60" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B62" s="54">
         <v>1.5</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B63" s="54">
         <v>3</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B64" s="54">
         <v>1.8</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B65" s="54">
         <v>2.5</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B66" s="54">
         <v>0.7</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B69" s="54">
         <v>1E-3</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B75" s="54">
         <v>1.1000000000000001</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B78" s="54">
         <v>1.1000000000000001</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B79" s="54">
         <v>1E-3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B80" s="54">
         <v>1E-4</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B82" s="52">
         <v>0.6</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B83" s="52">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B84" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B85" s="52">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B86" s="52">
         <v>0.1</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B87" s="52">
         <v>1.2</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B88" s="52">
         <v>1.5</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B89" s="54">
         <v>1.3</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B91" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B92" s="54">
         <v>0</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B93" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B95" s="54">
         <v>0.03</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B96" s="54">
         <v>0.01</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B97" s="54">
         <v>1E-3</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="53" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B98" s="52">
         <v>1.5</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="53" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B99" s="52">
         <v>0.94</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="53" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B100" s="52">
         <v>1.01</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="53" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B101" s="52">
         <v>0.2</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="53" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B102" s="52">
         <v>1.45</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="53" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B103" s="52">
         <v>1E-3</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="53" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B104" s="52">
         <v>1E-3</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="53" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B105" s="52">
         <v>1E-3</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="53" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B106" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -1350,6 +1350,18 @@
   </si>
   <si>
     <t>init_rp_some_ed_sec_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_p_unimproved_sanitation_urban</t>
+  </si>
+  <si>
+    <t>init_p_no_clean_drinking_water_urban</t>
+  </si>
+  <si>
+    <t>init_p_wood_burn_stove_urban</t>
+  </si>
+  <si>
+    <t>init_p_no_access_handwashing_wealth1</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2875,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3407,7 +3419,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>138</v>
+        <v>441</v>
       </c>
       <c r="B51" s="54">
         <v>0.04</v>
@@ -3425,7 +3437,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="B53" s="54">
         <v>1.7000000000000001E-2</v>
@@ -3443,7 +3455,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="53" t="s">
-        <v>136</v>
+        <v>443</v>
       </c>
       <c r="B55" s="52">
         <v>0.25700000000000001</v>
@@ -3461,7 +3473,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="B57" s="52">
         <v>0.47799999999999998</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2874,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -1127,9 +1127,6 @@
     <t>init_or_higher_bmi_tob</t>
   </si>
   <si>
-    <t>init_or_higher_bmi_per_higher_wealth</t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -1362,6 +1359,9 @@
   </si>
   <si>
     <t>init_p_no_access_handwashing_wealth1</t>
+  </si>
+  <si>
+    <t>init_or_higher_bmi_per_higher_wealth_level</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1761,6 +1761,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2875,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2890,19 +2891,19 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>370</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2979,7 +2980,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
@@ -3020,7 +3021,9 @@
       <c r="B10" s="54">
         <v>2.5</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="59" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
@@ -3033,7 +3036,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="54">
         <v>0.32</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="54">
         <v>0.4</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="54">
         <v>0.6</v>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" s="54">
         <v>0.01</v>
@@ -3123,7 +3126,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22" s="54">
         <v>0.2</v>
@@ -3132,7 +3135,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="54">
         <v>4</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="54">
         <v>6</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B25" s="54">
         <v>2</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="54">
         <v>3</v>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B27" s="54">
         <v>4</v>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B28" s="54">
         <v>5</v>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="54">
         <v>0.7</v>
@@ -3270,7 +3273,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" s="54">
         <v>0.97</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B36" s="54">
         <v>1.01</v>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B38" s="54">
         <v>1</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B39" s="54">
         <v>1</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B40" s="54">
         <v>0.99</v>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B41" s="54">
         <v>0.99</v>
@@ -3335,7 +3338,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B42" s="54">
         <v>0.98</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B43" s="54">
         <v>1.0049999999999999</v>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B44" s="54">
         <v>0.2</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B45" s="54">
         <v>1</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="54">
         <v>0.9</v>
@@ -3383,7 +3386,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B47" s="54">
         <v>0.85</v>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" s="54">
         <v>0.8</v>
@@ -3401,7 +3404,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" s="54">
         <v>0.75</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" s="54">
         <v>1.48</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="54">
         <v>0.04</v>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="54">
         <v>4.5</v>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" s="54">
         <v>1.7000000000000001E-2</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="52">
         <v>8.6</v>
@@ -3455,7 +3458,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B55" s="52">
         <v>0.25700000000000001</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56" s="52">
         <v>3.6</v>
@@ -3473,7 +3476,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B57" s="52">
         <v>0.47799999999999998</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" s="52">
         <v>1.06</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3500,7 +3503,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B62" s="54">
         <v>1.5</v>
@@ -3527,7 +3530,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B63" s="54">
         <v>3</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B64" s="54">
         <v>1.8</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" s="54">
         <v>2.5</v>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B66" s="54">
         <v>0.7</v>
@@ -3581,7 +3584,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B69" s="54">
         <v>1E-3</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B75" s="54">
         <v>1.1000000000000001</v>
@@ -3662,7 +3665,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B78" s="54">
         <v>1.1000000000000001</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B79" s="54">
         <v>1E-3</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B80" s="54">
         <v>1E-4</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="52">
         <v>0.6</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83" s="52">
         <v>2</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B84" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3725,7 +3728,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B85" s="52">
         <v>0</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B86" s="52">
         <v>0.1</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B87" s="52">
         <v>1.2</v>
@@ -3752,7 +3755,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B88" s="52">
         <v>1.5</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B89" s="54">
         <v>1.3</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B91" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3788,7 +3791,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B92" s="54">
         <v>0</v>
@@ -3799,7 +3802,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B93" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3817,7 +3820,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B95" s="54">
         <v>0.03</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B96" s="54">
         <v>0.01</v>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B97" s="54">
         <v>1E-3</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B98" s="52">
         <v>1.5</v>
@@ -3853,7 +3856,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B99" s="52">
         <v>0.94</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B100" s="52">
         <v>1.01</v>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B101" s="52">
         <v>0.2</v>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B102" s="52">
         <v>1.45</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" s="52">
         <v>1E-3</v>
@@ -3898,7 +3901,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B104" s="52">
         <v>1E-3</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B105" s="52">
         <v>1E-3</v>
@@ -3916,7 +3919,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B106" s="52">
         <v>1E-3</v>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2983,7 +2983,7 @@
         <v>375</v>
       </c>
       <c r="B6" s="54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2991,7 +2991,7 @@
         <v>361</v>
       </c>
       <c r="B7" s="54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C7" s="52"/>
       <c r="E7" s="54"/>
@@ -3001,7 +3001,7 @@
         <v>362</v>
       </c>
       <c r="B8" s="54">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C8" s="52"/>
     </row>
@@ -3010,7 +3010,7 @@
         <v>363</v>
       </c>
       <c r="B9" s="54">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="C9" s="52"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>364</v>
       </c>
       <c r="B10" s="54">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>23</v>
@@ -3030,7 +3030,7 @@
         <v>365</v>
       </c>
       <c r="B11" s="54">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="C11" s="52"/>
     </row>
@@ -3039,7 +3039,7 @@
         <v>444</v>
       </c>
       <c r="B12" s="54">
-        <v>1.01</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C12" s="52"/>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C64" s="52"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>409</v>
       </c>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="C65" s="52"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>410</v>
       </c>
@@ -3563,8 +3563,11 @@
         <v>0.7</v>
       </c>
       <c r="C66" s="52"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
         <v>349</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="C67" s="52"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="53" t="s">
         <v>348</v>
       </c>
@@ -3582,7 +3585,7 @@
       </c>
       <c r="C68" s="52"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
         <v>411</v>
       </c>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="C69" s="52"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="55" t="s">
         <v>350</v>
       </c>
@@ -3600,7 +3603,7 @@
       </c>
       <c r="C70" s="52"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="55" t="s">
         <v>351</v>
       </c>
@@ -3609,7 +3612,7 @@
       </c>
       <c r="C71" s="52"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="55" t="s">
         <v>355</v>
       </c>
@@ -3618,7 +3621,7 @@
       </c>
       <c r="C72" s="52"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
         <v>356</v>
       </c>
@@ -3627,7 +3630,7 @@
       </c>
       <c r="C73" s="52"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="55" t="s">
         <v>359</v>
       </c>
@@ -3636,7 +3639,7 @@
       </c>
       <c r="C74" s="52"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>414</v>
       </c>
@@ -3645,7 +3648,7 @@
       </c>
       <c r="C75" s="52"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="55" t="s">
         <v>357</v>
       </c>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="C76" s="52"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="55" t="s">
         <v>358</v>
       </c>
@@ -3663,7 +3666,7 @@
       </c>
       <c r="C77" s="52"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
         <v>415</v>
       </c>
@@ -3672,7 +3675,7 @@
       </c>
       <c r="C78" s="52"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
         <v>387</v>
       </c>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="C79" s="52"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
         <v>386</v>
       </c>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2963,19 +2963,19 @@
         <v>360</v>
       </c>
       <c r="B5" s="54">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="52">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2983,7 +2983,7 @@
         <v>375</v>
       </c>
       <c r="B6" s="54">
-        <v>1.25</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2991,7 +2991,7 @@
         <v>361</v>
       </c>
       <c r="B7" s="54">
-        <v>1.25</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C7" s="52"/>
       <c r="E7" s="54"/>
@@ -3001,7 +3001,7 @@
         <v>362</v>
       </c>
       <c r="B8" s="54">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8" s="52"/>
     </row>
@@ -3010,7 +3010,7 @@
         <v>363</v>
       </c>
       <c r="B9" s="54">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="C9" s="52"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>364</v>
       </c>
       <c r="B10" s="54">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>23</v>
@@ -3030,7 +3030,7 @@
         <v>365</v>
       </c>
       <c r="B11" s="54">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C11" s="52"/>
     </row>
@@ -3039,7 +3039,7 @@
         <v>444</v>
       </c>
       <c r="B12" s="54">
-        <v>1.0049999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="C12" s="52"/>
     </row>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2983,7 +2983,7 @@
         <v>375</v>
       </c>
       <c r="B6" s="54">
-        <v>1.1200000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2991,7 +2991,7 @@
         <v>361</v>
       </c>
       <c r="B7" s="54">
-        <v>1.1200000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="52"/>
       <c r="E7" s="54"/>
@@ -3001,7 +3001,7 @@
         <v>362</v>
       </c>
       <c r="B8" s="54">
-        <v>1.02</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8" s="52"/>
     </row>
@@ -3010,7 +3010,7 @@
         <v>363</v>
       </c>
       <c r="B9" s="54">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C9" s="52"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>364</v>
       </c>
       <c r="B10" s="54">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>23</v>
@@ -3030,7 +3030,7 @@
         <v>365</v>
       </c>
       <c r="B11" s="54">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="C11" s="52"/>
     </row>
@@ -3039,7 +3039,7 @@
         <v>444</v>
       </c>
       <c r="B12" s="54">
-        <v>1.002</v>
+        <v>1.02</v>
       </c>
       <c r="C12" s="52"/>
     </row>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2983,7 +2983,7 @@
         <v>375</v>
       </c>
       <c r="B6" s="54">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3010,7 +3010,7 @@
         <v>363</v>
       </c>
       <c r="B9" s="54">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C9" s="52"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>364</v>
       </c>
       <c r="B10" s="54">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>23</v>
@@ -3039,7 +3039,7 @@
         <v>444</v>
       </c>
       <c r="B12" s="54">
-        <v>1.02</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C12" s="52"/>
     </row>
@@ -3551,7 +3551,7 @@
         <v>409</v>
       </c>
       <c r="B65" s="54">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C65" s="52"/>
     </row>
@@ -3581,7 +3581,7 @@
         <v>348</v>
       </c>
       <c r="B68" s="54">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C68" s="52"/>
     </row>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2966,16 +2966,16 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="E5">
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F5">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -2966,16 +2966,16 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="52">
-        <v>0.83</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D5">
-        <v>0.105</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="E5">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F5">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3039,7 +3039,7 @@
         <v>444</v>
       </c>
       <c r="B12" s="54">
-        <v>1.1499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C12" s="52"/>
     </row>
@@ -3572,7 +3572,7 @@
         <v>349</v>
       </c>
       <c r="B67" s="54">
-        <v>1.1499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C67" s="52"/>
     </row>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2966,16 +2966,16 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="52">
-        <v>0.83499999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.10249999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <v>5.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2969,13 +2969,13 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2991,7 +2991,7 @@
         <v>361</v>
       </c>
       <c r="B7" s="54">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="52"/>
       <c r="E7" s="54"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2969,13 +2969,13 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="446">
   <si>
     <t>Name:</t>
   </si>
@@ -1362,15 +1362,25 @@
   </si>
   <si>
     <t>init_or_higher_bmi_per_higher_wealth_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1637,131 +1647,134 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2875,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3044,7 +3057,7 @@
       <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>345</v>
       </c>
       <c r="B13" s="54">
@@ -3079,7 +3092,7 @@
       </c>
       <c r="C16" s="52"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="53" t="s">
         <v>335</v>
       </c>
@@ -3088,7 +3101,7 @@
       </c>
       <c r="C17" s="52"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
         <v>371</v>
       </c>
@@ -3097,7 +3110,7 @@
       </c>
       <c r="C18" s="52"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
         <v>372</v>
       </c>
@@ -3106,7 +3119,7 @@
       </c>
       <c r="C19" s="52"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
         <v>373</v>
       </c>
@@ -3115,7 +3128,7 @@
       </c>
       <c r="C20" s="52"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
         <v>421</v>
       </c>
@@ -3124,7 +3137,7 @@
       </c>
       <c r="C21" s="52"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
         <v>418</v>
       </c>
@@ -3133,7 +3146,7 @@
       </c>
       <c r="C22" s="52"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
         <v>419</v>
       </c>
@@ -3142,7 +3155,7 @@
       </c>
       <c r="C23" s="52"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
         <v>420</v>
       </c>
@@ -3151,7 +3164,7 @@
       </c>
       <c r="C24" s="52"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="53" t="s">
         <v>422</v>
       </c>
@@ -3159,8 +3172,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="52"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
         <v>423</v>
       </c>
@@ -3169,7 +3185,7 @@
       </c>
       <c r="C26" s="52"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
         <v>424</v>
       </c>
@@ -3178,7 +3194,7 @@
       </c>
       <c r="C27" s="52"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
         <v>425</v>
       </c>
@@ -3187,7 +3203,7 @@
       </c>
       <c r="C28" s="52"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
         <v>376</v>
       </c>
@@ -3201,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
         <v>84</v>
       </c>
@@ -3215,7 +3231,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
         <v>82</v>
       </c>
@@ -3229,7 +3245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
         <v>145</v>
       </c>
@@ -3402,7 +3418,7 @@
       </c>
       <c r="C48" s="52"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
         <v>438</v>
       </c>
@@ -3411,7 +3427,7 @@
       </c>
       <c r="C49" s="52"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
         <v>439</v>
       </c>
@@ -3419,8 +3435,11 @@
         <v>1.48</v>
       </c>
       <c r="C50" s="52"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
         <v>440</v>
       </c>
@@ -3429,7 +3448,7 @@
       </c>
       <c r="C51" s="52"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
         <v>402</v>
       </c>
@@ -3438,7 +3457,7 @@
       </c>
       <c r="C52" s="52"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
         <v>441</v>
       </c>
@@ -3447,7 +3466,7 @@
       </c>
       <c r="C53" s="52"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
         <v>412</v>
       </c>
@@ -3456,7 +3475,7 @@
       </c>
       <c r="C54" s="52"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="53" t="s">
         <v>442</v>
       </c>
@@ -3465,7 +3484,7 @@
       </c>
       <c r="C55" s="52"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="53" t="s">
         <v>413</v>
       </c>
@@ -3474,7 +3493,7 @@
       </c>
       <c r="C56" s="52"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="s">
         <v>443</v>
       </c>
@@ -3483,7 +3502,7 @@
       </c>
       <c r="C57" s="52"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="53" t="s">
         <v>403</v>
       </c>
@@ -3492,7 +3511,7 @@
       </c>
       <c r="C58" s="52"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="s">
         <v>404</v>
       </c>
@@ -3501,7 +3520,7 @@
       </c>
       <c r="C59" s="52"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
         <v>405</v>
       </c>
@@ -3510,7 +3529,7 @@
       </c>
       <c r="C60" s="52"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
         <v>347</v>
       </c>
@@ -3519,7 +3538,7 @@
       </c>
       <c r="C61" s="52"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
         <v>406</v>
       </c>
@@ -3527,8 +3546,11 @@
         <v>1.5</v>
       </c>
       <c r="C62" s="52"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
         <v>407</v>
       </c>
@@ -3537,7 +3559,7 @@
       </c>
       <c r="C63" s="52"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
         <v>408</v>
       </c>
@@ -3581,7 +3603,7 @@
         <v>348</v>
       </c>
       <c r="B68" s="54">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C68" s="52"/>
     </row>
@@ -3599,7 +3621,7 @@
         <v>350</v>
       </c>
       <c r="B70" s="54">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="C70" s="52"/>
     </row>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="2"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -2706,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J176"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3711,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6367,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5587,7 +5587,7 @@
         <v>323</v>
       </c>
       <c r="B44" s="30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5587,7 +5587,7 @@
         <v>323</v>
       </c>
       <c r="B44" s="30">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6279,7 +6279,7 @@
         <v>318</v>
       </c>
       <c r="B101" s="16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>5.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6279,7 +6279,7 @@
         <v>318</v>
       </c>
       <c r="B101" s="16">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6279,7 +6279,7 @@
         <v>318</v>
       </c>
       <c r="B101" s="16">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6231,7 +6231,7 @@
         <v>315</v>
       </c>
       <c r="B97" s="30">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -612,9 +612,6 @@
     <t xml:space="preserve">r_stop_ed     </t>
   </si>
   <si>
-    <t>probabilities per 3 months of stopping education if wealth level 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">r_div_wid       </t>
   </si>
   <si>
@@ -1251,6 +1248,9 @@
   </si>
   <si>
     <t>li_urban, li_wealth, li_low_ex, li_bmi, li_tob, li_ex_alc, li_in_ed, li_ed_lev, li_mar_stat, li_high_salt, li_high_sugar</t>
+  </si>
+  <si>
+    <t>probabilities per 3 months of stopping education once in secondary education if wealth level 5</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -2647,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
@@ -3711,8 +3711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:3" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>94</v>
       </c>
@@ -3757,16 +3757,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>402</v>
       </c>
       <c r="C8" s="16"/>
     </row>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>403</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>404</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -3886,7 +3886,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3894,10 +3894,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3905,10 +3905,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3916,10 +3916,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3927,10 +3927,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3938,10 +3938,10 @@
         <v>120</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3949,32 +3949,32 @@
         <v>122</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>214</v>
-      </c>
       <c r="C30" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3985,7 +3985,7 @@
         <v>141</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3993,18 +3993,18 @@
         <v>124</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>72</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>72</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>72</v>
@@ -4034,98 +4034,98 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>72</v>
@@ -4136,10 +4136,10 @@
         <v>125</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -4147,10 +4147,10 @@
         <v>76</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -4158,10 +4158,10 @@
         <v>77</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -4169,10 +4169,10 @@
         <v>75</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -4180,10 +4180,10 @@
         <v>126</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -4191,10 +4191,10 @@
         <v>127</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -4202,10 +4202,10 @@
         <v>128</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -4216,7 +4216,7 @@
         <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -4227,7 +4227,7 @@
         <v>132</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -4238,7 +4238,7 @@
         <v>134</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
         <v>136</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -4260,7 +4260,7 @@
         <v>138</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
         <v>140</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -4282,7 +4282,7 @@
         <v>143</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -4315,7 +4315,7 @@
         <v>146</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -4326,7 +4326,7 @@
         <v>148</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -4337,7 +4337,7 @@
         <v>151</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -4348,7 +4348,7 @@
         <v>161</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -4359,7 +4359,7 @@
         <v>154</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -4370,128 +4370,128 @@
         <v>156</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -4513,7 +4513,7 @@
         <v>160</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -4524,7 +4524,7 @@
         <v>163</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4535,7 +4535,7 @@
         <v>165</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -4546,7 +4546,7 @@
         <v>168</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>169</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -4568,7 +4568,7 @@
         <v>171</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -4579,7 +4579,7 @@
         <v>173</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -4590,7 +4590,7 @@
         <v>175</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
         <v>177</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -4612,73 +4612,73 @@
         <v>179</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="B89" s="39" t="s">
-        <v>206</v>
-      </c>
       <c r="C89" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="48" t="s">
-        <v>204</v>
-      </c>
       <c r="C90" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B91" s="39" t="s">
-        <v>202</v>
-      </c>
       <c r="C91" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>200</v>
-      </c>
       <c r="C92" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B93" s="39" t="s">
-        <v>198</v>
-      </c>
       <c r="C93" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="39" t="s">
-        <v>196</v>
-      </c>
       <c r="C94" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4686,10 +4686,10 @@
         <v>193</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
         <v>83</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -4722,7 +4722,7 @@
         <v>81</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
         <v>84</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -4744,7 +4744,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -4755,7 +4755,7 @@
         <v>187</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
         <v>185</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
         <v>183</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -4788,196 +4788,196 @@
         <v>181</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C111" s="30"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C119" s="30"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C122" s="30"/>
     </row>
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5004,22 +5004,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -5076,7 +5076,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="30">
         <v>0.06</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="30">
         <v>3</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="30">
         <v>0.6</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="30">
         <v>1.1000000000000001</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="30">
         <v>1.8</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="30">
         <v>2.7</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="30">
         <v>0.7</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="30">
         <v>0.85</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="30">
         <v>0.4</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="30">
         <v>0.2</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="30">
         <v>1.5</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="30">
         <v>0.15</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="30">
         <v>0.01</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="30">
         <v>0.32</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="30">
         <v>0.4</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="30">
         <v>0.6</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="30">
         <v>0.01</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" s="30">
         <v>0.2</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" s="30">
         <v>4</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B24" s="30">
         <v>6</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="30">
         <v>2</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="30">
         <v>3</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" s="30">
         <v>4</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="30">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B29" s="30">
         <v>0.7</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="30">
         <v>0.97</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B36" s="30">
         <v>1.01</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="30">
         <v>1</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="30">
         <v>1</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="30">
         <v>1</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" s="30">
         <v>0.99</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" s="30">
         <v>0.99</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" s="30">
         <v>0.98</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B43" s="30">
         <v>1.0049999999999999</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="30">
         <v>0.25</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="30">
         <v>1</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B46" s="30">
         <v>0.9</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="30">
         <v>0.85</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="30">
         <v>0.8</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" s="30">
         <v>0.75</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="30">
         <v>1.48</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" s="30">
         <v>0.04</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="30">
         <v>4.5</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" s="30">
         <v>1.7000000000000001E-2</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="16">
         <v>8.6</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B55" s="16">
         <v>0.25700000000000001</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B56" s="16">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" s="16">
         <v>0.47799999999999998</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B58" s="16">
         <v>1.06</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B59" s="16">
         <v>5.0000000000000001E-4</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B60" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="30">
         <v>5.0000000000000001E-4</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" s="30">
         <v>1.5</v>
@@ -5811,12 +5811,12 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B63" s="30">
         <v>3</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B64" s="30">
         <v>1.8</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B65" s="30">
         <v>2.7</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B66" s="30">
         <v>0.7</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="30">
         <v>0.85</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B68" s="30">
         <v>1.2</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B69" s="30">
         <v>1E-3</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="30">
         <v>1.4</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" s="30">
         <v>1.1000000000000001</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="30">
         <v>3.0000000000000001E-3</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="30">
         <v>1.5</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" s="30">
         <v>1E-4</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B75" s="30">
         <v>1.1000000000000001</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B76" s="30">
         <v>1E-4</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="30">
         <v>1E-4</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B78" s="30">
         <v>1.1000000000000001</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" s="30">
         <v>1E-3</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B80" s="30">
         <v>1E-4</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B81" s="30">
         <v>1.1000000000000001</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="16">
         <v>0.6</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B83" s="16">
         <v>2</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B84" s="16">
         <v>4.0000000000000002E-4</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" s="16">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" s="16">
         <v>0.1</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" s="16">
         <v>1.2</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B88" s="16">
         <v>1.5</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" s="30">
         <v>1.3</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B90" s="30">
         <v>1.1000000000000001</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B91" s="30">
         <v>3.0000000000000001E-3</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B92" s="30">
         <v>0</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B93" s="30">
         <v>7.0000000000000007E-2</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B94" s="30">
         <v>1.1000000000000001</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B95" s="30">
         <v>0.03</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B96" s="30">
         <v>0.01</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" s="30">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" s="16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" s="16">
         <v>0.94</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B100" s="16">
         <v>1.01</v>
@@ -6276,10 +6276,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="16">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B102" s="16">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" s="16">
         <v>1E-3</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B104" s="16">
         <v>1E-3</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105" s="16">
         <v>1E-3</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" s="16">
         <v>1E-3</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
@@ -6779,7 +6779,7 @@
     </row>
     <row r="98" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B98" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5733,7 +5733,7 @@
         <v>334</v>
       </c>
       <c r="B56" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5733,7 +5733,7 @@
         <v>334</v>
       </c>
       <c r="B56" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5733,7 +5733,7 @@
         <v>334</v>
       </c>
       <c r="B56" s="16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>

--- a/resources/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/resources/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stef/UCL/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BCB81-F662-2241-8274-7EFBFB4BDC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="3"/>
+    <workbookView xWindow="14760" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,23 @@
     <sheet name="parameter_values" sheetId="8" r:id="rId4"/>
     <sheet name="References" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="371">
   <si>
     <t>Name:</t>
   </si>
@@ -66,9 +73,6 @@
     <t>P-variables:</t>
   </si>
   <si>
-    <t>Description of Events and Parameters</t>
-  </si>
-  <si>
     <t>Proccessed</t>
   </si>
   <si>
@@ -258,9 +262,6 @@
     <t>init_dist_mar_stat_age3040</t>
   </si>
   <si>
-    <t xml:space="preserve">init_dist_mar_stat_age1520 </t>
-  </si>
-  <si>
     <t>init_dist_mar_stat_age2030</t>
   </si>
   <si>
@@ -417,234 +418,108 @@
     <t>init_dist_mar_stat_agege60</t>
   </si>
   <si>
-    <t xml:space="preserve">init_age2030_w5_some_ed    </t>
-  </si>
-  <si>
     <t>proportions of low wealth 20-30 year olds with some education at baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age0513    </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 5-13</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age1320  </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 13-20</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age2030   </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 20-30</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age3040  </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 30-40</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age4050    </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 40-50</t>
   </si>
   <si>
     <t>proportion urban at baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_age5060    </t>
-  </si>
-  <si>
     <t>relative prevalence of some education at baseline age 50-60</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_per_higher_wealth   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_prop_age2030_w5_some_ed_sec </t>
-  </si>
-  <si>
     <t>relative prevalence of secondary education age 15-20</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_age1320  </t>
-  </si>
-  <si>
     <t>relative prevalence of secondary education age 30-40</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_age3040   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_age4050      </t>
-  </si>
-  <si>
     <t>relative prevalence of secondary education age 40-50</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_age5060    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_agege60     </t>
-  </si>
-  <si>
     <t>relative prevalence of secondary education age 60+</t>
   </si>
   <si>
-    <t xml:space="preserve">init_rp_some_ed_sec_per_higher_wealth       </t>
-  </si>
-  <si>
     <t>relative prevalence of secondary education per higher wealth level</t>
   </si>
   <si>
-    <t xml:space="preserve">r_urban        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from rural to urban</t>
   </si>
   <si>
-    <t xml:space="preserve">r_rural      </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from urban to rural</t>
   </si>
   <si>
     <t>relative prevalence of secondary education age 50-60</t>
   </si>
   <si>
-    <t xml:space="preserve">r_low_ex        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from not low exercise to low exercise</t>
   </si>
   <si>
-    <t xml:space="preserve">r_not_low_ex        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from low exercise to not low exercise</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_low_ex_f       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_low_ex_urban       </t>
-  </si>
-  <si>
     <t>risk ratio for becoming low exercise if female rather than male</t>
   </si>
   <si>
     <t>risk ratio for becoming low exercise if urban rather than rural</t>
   </si>
   <si>
-    <t xml:space="preserve">r_tob        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from not using tobacco to using tobacco if male age 15-19 wealth level 1</t>
   </si>
   <si>
-    <t xml:space="preserve">r_not_tob        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from tobacco using to not tobacco using</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_tob_age2039        </t>
-  </si>
-  <si>
     <t>risk ratio for tobacco using if age 20-39 compared with 15-19</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_tob_agege40        </t>
-  </si>
-  <si>
     <t>risk ratio for tobacco using if age &gt;= 40 compared with 15-19</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_tob_f        </t>
-  </si>
-  <si>
     <t>risk ratio for tobacco using if female</t>
   </si>
   <si>
-    <t xml:space="preserve">r_access_handwashing  </t>
-  </si>
-  <si>
     <t xml:space="preserve">probability per 3 months of change from no_access_handwashing true to false </t>
   </si>
   <si>
-    <t xml:space="preserve">r_non_wood_burn_stove   </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from wood_burn_stove true to false</t>
   </si>
   <si>
-    <t xml:space="preserve">r_clean_drinking_water  </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from drinking_water true to false</t>
   </si>
   <si>
-    <t xml:space="preserve">r_improved_sanitation         </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from unimproved_sanitation true to false</t>
   </si>
   <si>
-    <t xml:space="preserve">rp_ed_secondary_higher_wealth     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_ed_secondary     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rp_ed_primary_higher_wealth     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_ed_primary     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_stop_ed_lower_wealth        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_stop_ed     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_div_wid       </t>
-  </si>
-  <si>
     <t>probability per 3 months of becoming divorced or widowed amongst those married</t>
   </si>
   <si>
-    <t xml:space="preserve">r_mar        </t>
-  </si>
-  <si>
     <t>probability per 3 months of marriage when age 15-30</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_ex_alc_f        </t>
-  </si>
-  <si>
     <t>risk ratio for becoming excess alcohol if female rather than male</t>
   </si>
   <si>
-    <t xml:space="preserve">r_not_ex_alc        </t>
-  </si>
-  <si>
     <t>probability per 3 months of change from excess alcohol to  not excess alcohol</t>
   </si>
   <si>
-    <t xml:space="preserve">r_ex_alc        </t>
-  </si>
-  <si>
     <t xml:space="preserve">probability per 3 months of change from not excess alcohol to excess alcohol </t>
   </si>
   <si>
-    <t xml:space="preserve">rr_tob_wealth        </t>
-  </si>
-  <si>
     <t>risk ratio for tobacco using per 1 higher wealth level  (higher wealth level = lower wealth)</t>
   </si>
   <si>
@@ -889,21 +764,6 @@
   </si>
   <si>
     <t>init_or_higher_bmi_tob</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>value3</t>
-  </si>
-  <si>
-    <t>value4</t>
-  </si>
-  <si>
-    <t>value5</t>
   </si>
   <si>
     <t>init_p_low_ex_urban_m</t>
@@ -1251,12 +1111,51 @@
   </si>
   <si>
     <t>probabilities per 3 months of stopping education once in secondary education if wealth level 5</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>[0.75, 0.16, 0.05, 0.02, 0.02]</t>
+  </si>
+  <si>
+    <t>[0.11, 0.21, 0.22, 0.23, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.06, 0.8, 0.12, 0.01, 0.01]</t>
+  </si>
+  <si>
+    <t>[0.7, 0.3, 0]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.8, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.7, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.5, 0.47]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.3, 0.67]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.2, 0.77]</t>
+  </si>
+  <si>
+    <t>DescriptionofEventsandParameters</t>
+  </si>
+  <si>
+    <t>relative prevalence of some education at baseline age age 60+</t>
+  </si>
+  <si>
+    <t>TODO: value for this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1644,7 +1543,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1682,7 +1587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1720,7 +1631,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1758,7 +1675,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1796,7 +1719,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1834,7 +1763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1875,7 +1810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1916,7 +1857,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1954,7 +1901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1995,7 +1948,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2036,7 +1995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2077,7 +2042,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="Picture 180"/>
+        <xdr:cNvPr id="181" name="Picture 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2118,7 +2089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2156,7 +2133,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2189,7 +2172,13 @@
     <xdr:ext cx="2188100" cy="593239"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2541,158 +2530,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:3" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C23" s="15">
         <v>43698</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
     </row>
@@ -2703,271 +2692,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J176"/>
   <sheetViews>
     <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.08203125" customWidth="1"/>
-    <col min="2" max="2" width="80.08203125" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="17"/>
     </row>
-    <row r="47" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="32"/>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="37"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="30"/>
       <c r="C68" s="37"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="37"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="38"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="30"/>
       <c r="C71" s="38"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="38"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="37"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="30"/>
       <c r="C76" s="34"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
@@ -2979,7 +2968,7 @@
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -2991,7 +2980,7 @@
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -3003,7 +2992,7 @@
       <c r="I79" s="23"/>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -3015,7 +3004,7 @@
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
@@ -3027,7 +3016,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
@@ -3039,7 +3028,7 @@
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
@@ -3051,7 +3040,7 @@
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -3063,7 +3052,7 @@
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="35"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
@@ -3075,7 +3064,7 @@
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="35"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -3087,7 +3076,7 @@
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="35"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
@@ -3099,7 +3088,7 @@
       <c r="I87" s="23"/>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
@@ -3111,7 +3100,7 @@
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="35"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -3123,7 +3112,7 @@
       <c r="I89" s="23"/>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="35"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -3135,7 +3124,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="35"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -3147,7 +3136,7 @@
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -3159,7 +3148,7 @@
       <c r="I92" s="23"/>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="35"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
@@ -3171,7 +3160,7 @@
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="35"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -3183,7 +3172,7 @@
       <c r="I94" s="23"/>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="35"/>
       <c r="B95" s="30"/>
       <c r="C95" s="40"/>
@@ -3195,7 +3184,7 @@
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="35"/>
       <c r="B96" s="30"/>
       <c r="C96" s="40"/>
@@ -3207,7 +3196,7 @@
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="35"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
@@ -3219,7 +3208,7 @@
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="35"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -3231,7 +3220,7 @@
       <c r="I98" s="23"/>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="35"/>
       <c r="B99" s="16"/>
       <c r="C99" s="30"/>
@@ -3243,7 +3232,7 @@
       <c r="I99" s="23"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="35"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -3255,7 +3244,7 @@
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="35"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
@@ -3267,7 +3256,7 @@
       <c r="I101" s="23"/>
       <c r="J101" s="23"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="35"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -3279,7 +3268,7 @@
       <c r="I102" s="23"/>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="35"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -3291,7 +3280,7 @@
       <c r="I103" s="23"/>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="35"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -3303,7 +3292,7 @@
       <c r="I104" s="23"/>
       <c r="J104" s="23"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="35"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
@@ -3315,7 +3304,7 @@
       <c r="I105" s="23"/>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="36"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -3326,7 +3315,7 @@
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="36"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
@@ -3337,365 +3326,365 @@
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="23"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="31"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30"/>
       <c r="D109" s="23"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="31"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
       <c r="D110" s="23"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="31"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
       <c r="D111" s="23"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
       <c r="D112" s="23"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="16"/>
       <c r="C113" s="30"/>
       <c r="D113" s="23"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="40"/>
       <c r="B114" s="16"/>
       <c r="C114" s="30"/>
       <c r="D114" s="23"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="40"/>
       <c r="B115" s="39"/>
       <c r="C115" s="30"/>
       <c r="D115" s="23"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="40"/>
       <c r="B116" s="39"/>
       <c r="C116" s="30"/>
       <c r="D116" s="23"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="40"/>
       <c r="B117" s="39"/>
       <c r="C117" s="30"/>
       <c r="D117" s="23"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="40"/>
       <c r="B118" s="39"/>
       <c r="C118" s="30"/>
       <c r="D118" s="23"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="40"/>
       <c r="B119" s="39"/>
       <c r="C119" s="30"/>
       <c r="D119" s="23"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="44"/>
       <c r="B120" s="39"/>
       <c r="C120" s="30"/>
       <c r="D120" s="23"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="44"/>
       <c r="B121" s="39"/>
       <c r="C121" s="30"/>
       <c r="D121" s="23"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="44"/>
       <c r="B122" s="39"/>
       <c r="C122" s="30"/>
       <c r="D122" s="23"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="44"/>
       <c r="B123" s="39"/>
       <c r="C123" s="30"/>
       <c r="D123" s="23"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="44"/>
       <c r="B124" s="39"/>
       <c r="C124" s="30"/>
       <c r="D124" s="23"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="44"/>
       <c r="B125" s="39"/>
       <c r="C125" s="30"/>
       <c r="D125" s="23"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="44"/>
       <c r="B126" s="39"/>
       <c r="C126" s="30"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="44"/>
       <c r="B127" s="39"/>
       <c r="C127" s="30"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="44"/>
       <c r="B128" s="39"/>
       <c r="C128" s="30"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="44"/>
       <c r="B129" s="39"/>
       <c r="C129" s="30"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="44"/>
       <c r="B130" s="39"/>
       <c r="C130" s="30"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="40"/>
       <c r="B131" s="39"/>
       <c r="C131" s="30"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16"/>
       <c r="B132" s="39"/>
       <c r="C132" s="40"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16"/>
       <c r="B133" s="39"/>
       <c r="C133" s="40"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
       <c r="B134" s="16"/>
       <c r="C134" s="30"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
       <c r="B135" s="16"/>
       <c r="C135" s="30"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
       <c r="B136" s="39"/>
       <c r="C136" s="40"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
       <c r="B137" s="39"/>
       <c r="C137" s="40"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
       <c r="B138" s="39"/>
       <c r="C138" s="40"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
       <c r="B139" s="39"/>
       <c r="C139" s="40"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
       <c r="B140" s="39"/>
       <c r="C140" s="40"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
       <c r="B141" s="39"/>
       <c r="C141" s="40"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
       <c r="B142" s="39"/>
       <c r="C142" s="40"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
       <c r="B143" s="39"/>
       <c r="C143" s="40"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="B144" s="39"/>
       <c r="C144" s="41"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
       <c r="B145" s="39"/>
       <c r="C145" s="40"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
       <c r="B146" s="39"/>
       <c r="C146" s="41"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
       <c r="B147" s="39"/>
       <c r="C147" s="40"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
       <c r="B148" s="39"/>
       <c r="C148" s="40"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16"/>
       <c r="B149" s="39"/>
       <c r="C149" s="40"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
       <c r="B150" s="39"/>
       <c r="C150" s="40"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16"/>
       <c r="B151" s="39"/>
       <c r="C151" s="40"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16"/>
       <c r="B152" s="39"/>
       <c r="C152" s="40"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16"/>
       <c r="B153" s="39"/>
       <c r="C153" s="40"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="40"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="30"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="30"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="30"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="30"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="34"/>
       <c r="B159" s="16"/>
       <c r="C159" s="30"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="45"/>
       <c r="B160" s="16"/>
       <c r="C160" s="30"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="45"/>
       <c r="B161" s="16"/>
       <c r="C161" s="30"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="45"/>
       <c r="B162" s="16"/>
       <c r="C162" s="30"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="45"/>
       <c r="B163" s="16"/>
       <c r="C163" s="30"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="45"/>
       <c r="B164" s="16"/>
       <c r="C164" s="30"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="45"/>
       <c r="B165" s="16"/>
       <c r="C165" s="30"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="34"/>
       <c r="B166" s="16"/>
       <c r="C166" s="30"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="34"/>
       <c r="B167" s="16"/>
       <c r="C167" s="30"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="45"/>
       <c r="B168" s="16"/>
       <c r="C168" s="30"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="B169" s="16"/>
       <c r="C169" s="30"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="B170" s="16"/>
       <c r="C170" s="30"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
       <c r="B171" s="16"/>
       <c r="C171" s="30"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="45"/>
       <c r="B172" s="16"/>
       <c r="C172" s="30"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="46"/>
       <c r="B173" s="16"/>
       <c r="C173" s="30"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="45"/>
       <c r="B174" s="16"/>
       <c r="C174" s="30"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="45"/>
       <c r="B175" s="16"/>
       <c r="C175" s="30"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="45"/>
       <c r="B176" s="16"/>
       <c r="C176" s="30"/>
@@ -3708,1323 +3697,1347 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:D125"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
     <col min="2" max="2" width="84.6640625" customWidth="1"/>
-    <col min="3" max="3" width="68.08203125" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="28"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B12" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B13" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B15" s="30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B16" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>115</v>
-      </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B25" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D53:D61" si="0">_xlfn.CONCAT("'", A59, "': Parameter(Types.REAL, '", B59, "'),")</f>
+        <v>'init_rp_some_ed_agege60': Parameter(Types.REAL, 'relative prevalence of some education at baseline age age 60+'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="30" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="30" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="30" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="30" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="16" t="s">
+    </row>
+    <row r="93" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="30" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="44" t="s">
+      <c r="C97" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="B98" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="B99" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B100" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="34" t="s">
-        <v>268</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="C105" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="30"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="30"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C120" s="30"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="30"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C106" s="30" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C111" s="30"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C115" s="30"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="C119" s="30"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C122" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="24.58203125" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="30">
         <v>0.17</v>
@@ -5034,69 +5047,45 @@
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0.11</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B6" s="30">
         <v>3</v>
@@ -5106,9 +5095,9 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="B7" s="30">
         <v>0.6</v>
@@ -5118,9 +5107,9 @@
       <c r="E7" s="30"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B8" s="30">
         <v>1.1000000000000001</v>
@@ -5130,9 +5119,9 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="B9" s="30">
         <v>1.8</v>
@@ -5142,23 +5131,21 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B10" s="30">
         <v>2.7</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B11" s="30">
         <v>0.7</v>
@@ -5168,9 +5155,9 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="B12" s="30">
         <v>0.85</v>
@@ -5180,9 +5167,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="B13" s="30">
         <v>0.4</v>
@@ -5192,9 +5179,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="B14" s="30">
         <v>0.2</v>
@@ -5204,9 +5191,9 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="B15" s="30">
         <v>1.5</v>
@@ -5216,9 +5203,9 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B16" s="30">
         <v>0.15</v>
@@ -5228,9 +5215,9 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="B17" s="30">
         <v>0.01</v>
@@ -5240,9 +5227,9 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="B18" s="30">
         <v>0.32</v>
@@ -5252,9 +5239,9 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="B19" s="30">
         <v>0.4</v>
@@ -5264,9 +5251,9 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B20" s="30">
         <v>0.6</v>
@@ -5276,9 +5263,9 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="B21" s="30">
         <v>0.01</v>
@@ -5288,9 +5275,9 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B22" s="30">
         <v>0.2</v>
@@ -5300,9 +5287,9 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="B23" s="30">
         <v>4</v>
@@ -5312,9 +5299,9 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B24" s="30">
         <v>6</v>
@@ -5324,9 +5311,9 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="B25" s="30">
         <v>2</v>
@@ -5334,13 +5321,11 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B26" s="30">
         <v>3</v>
@@ -5350,9 +5335,9 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="B27" s="30">
         <v>4</v>
@@ -5362,9 +5347,9 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="B28" s="30">
         <v>5</v>
@@ -5374,119 +5359,93 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0.05</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0.25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="C32" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0.47</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="C33" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="D33" s="16">
-        <v>0.67</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0.77</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="B35" s="30">
         <v>0.97</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="B36" s="30">
         <v>1.01</v>
@@ -5496,9 +5455,9 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="B37" s="30">
         <v>1</v>
@@ -5508,9 +5467,9 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="B38" s="30">
         <v>1</v>
@@ -5520,9 +5479,9 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="B39" s="30">
         <v>1</v>
@@ -5532,9 +5491,9 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="B40" s="30">
         <v>0.99</v>
@@ -5544,9 +5503,9 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="B41" s="30">
         <v>0.99</v>
@@ -5556,9 +5515,9 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="B42" s="30">
         <v>0.98</v>
@@ -5566,13 +5525,13 @@
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="B43" s="30">
         <v>1.0049999999999999</v>
@@ -5582,9 +5541,9 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B44" s="30">
         <v>0.25</v>
@@ -5594,9 +5553,9 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="B45" s="30">
         <v>1</v>
@@ -5606,9 +5565,9 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="B46" s="30">
         <v>0.9</v>
@@ -5618,9 +5577,9 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="34" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="B47" s="30">
         <v>0.85</v>
@@ -5630,9 +5589,9 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="B48" s="30">
         <v>0.8</v>
@@ -5642,9 +5601,9 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="B49" s="30">
         <v>0.75</v>
@@ -5654,23 +5613,23 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="B50" s="30">
         <v>1.48</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="B51" s="30">
         <v>0.04</v>
@@ -5680,9 +5639,9 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B52" s="30">
         <v>4.5</v>
@@ -5692,9 +5651,9 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B53" s="30">
         <v>1.7000000000000001E-2</v>
@@ -5704,9 +5663,9 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="B54" s="16">
         <v>8.6</v>
@@ -5716,9 +5675,9 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="B55" s="16">
         <v>0.25700000000000001</v>
@@ -5728,9 +5687,9 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B56" s="16">
         <v>40</v>
@@ -5740,9 +5699,9 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="34" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="B57" s="16">
         <v>0.47799999999999998</v>
@@ -5752,9 +5711,9 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="B58" s="16">
         <v>1.06</v>
@@ -5764,9 +5723,9 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B59" s="16">
         <v>5.0000000000000001E-4</v>
@@ -5776,9 +5735,9 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B60" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5788,9 +5747,9 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B61" s="30">
         <v>5.0000000000000001E-4</v>
@@ -5800,9 +5759,9 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B62" s="30">
         <v>1.5</v>
@@ -5811,12 +5770,12 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="45" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B63" s="30">
         <v>3</v>
@@ -5826,9 +5785,9 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B64" s="30">
         <v>1.8</v>
@@ -5838,9 +5797,9 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B65" s="30">
         <v>2.7</v>
@@ -5850,23 +5809,23 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B66" s="30">
         <v>0.7</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="45" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B67" s="30">
         <v>0.85</v>
@@ -5876,9 +5835,9 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B68" s="30">
         <v>1.2</v>
@@ -5888,9 +5847,9 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B69" s="30">
         <v>1E-3</v>
@@ -5900,9 +5859,9 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="B70" s="30">
         <v>1.4</v>
@@ -5912,9 +5871,9 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="B71" s="30">
         <v>1.1000000000000001</v>
@@ -5924,9 +5883,9 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B72" s="30">
         <v>3.0000000000000001E-3</v>
@@ -5936,9 +5895,9 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B73" s="30">
         <v>1.5</v>
@@ -5948,9 +5907,9 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="45" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="B74" s="30">
         <v>1E-4</v>
@@ -5960,9 +5919,9 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="46" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B75" s="30">
         <v>1.1000000000000001</v>
@@ -5972,9 +5931,9 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="B76" s="30">
         <v>1E-4</v>
@@ -5984,9 +5943,9 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="45" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B77" s="30">
         <v>1E-4</v>
@@ -5996,9 +5955,9 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="45" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="B78" s="30">
         <v>1.1000000000000001</v>
@@ -6008,9 +5967,9 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B79" s="30">
         <v>1E-3</v>
@@ -6020,9 +5979,9 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="34" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B80" s="30">
         <v>1E-4</v>
@@ -6032,9 +5991,9 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B81" s="30">
         <v>1.1000000000000001</v>
@@ -6044,9 +6003,9 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B82" s="16">
         <v>0.6</v>
@@ -6056,9 +6015,9 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="34" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="B83" s="16">
         <v>2</v>
@@ -6068,9 +6027,9 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="34" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="B84" s="16">
         <v>4.0000000000000002E-4</v>
@@ -6080,9 +6039,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="34" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="B85" s="16">
         <v>0</v>
@@ -6092,9 +6051,9 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="34" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B86" s="16">
         <v>0.1</v>
@@ -6104,9 +6063,9 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="B87" s="16">
         <v>1.2</v>
@@ -6116,9 +6075,9 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="34" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B88" s="16">
         <v>1.5</v>
@@ -6128,9 +6087,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="B89" s="30">
         <v>1.3</v>
@@ -6140,9 +6099,9 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="45" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="B90" s="30">
         <v>1.1000000000000001</v>
@@ -6152,9 +6111,9 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="34" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="B91" s="30">
         <v>3.0000000000000001E-3</v>
@@ -6164,23 +6123,23 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B92" s="30">
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="34" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B93" s="30">
         <v>7.0000000000000007E-2</v>
@@ -6190,9 +6149,9 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="34" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="B94" s="30">
         <v>1.1000000000000001</v>
@@ -6202,9 +6161,9 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="34" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B95" s="30">
         <v>0.03</v>
@@ -6214,9 +6173,9 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="34" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B96" s="30">
         <v>0.01</v>
@@ -6226,9 +6185,9 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="34" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="B97" s="30">
         <v>0.03</v>
@@ -6238,9 +6197,9 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="34" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B98" s="16">
         <v>1.8</v>
@@ -6250,9 +6209,9 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="34" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="B99" s="16">
         <v>0.94</v>
@@ -6262,9 +6221,9 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="34" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B100" s="16">
         <v>1.01</v>
@@ -6274,9 +6233,9 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="34" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B101" s="16">
         <v>0.8</v>
@@ -6286,9 +6245,9 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="34" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="B102" s="16">
         <v>1.05</v>
@@ -6298,9 +6257,9 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="34" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B103" s="16">
         <v>1E-3</v>
@@ -6310,9 +6269,9 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B104" s="16">
         <v>1E-3</v>
@@ -6322,9 +6281,9 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="B105" s="16">
         <v>1E-3</v>
@@ -6334,9 +6293,9 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="B106" s="16">
         <v>1E-3</v>
@@ -6346,15 +6305,13 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="42"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="42"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="42"/>
     </row>
   </sheetData>
@@ -6364,456 +6321,456 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:B106"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="153.58203125" customWidth="1"/>
+    <col min="2" max="2" width="153.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="20" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="20" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="19"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="19" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="18" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="19"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="19"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="19"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="19"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="19" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="19"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="19"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="18" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="19"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="19"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="19"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="19"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="19" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="19"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="19"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="19"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="18"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="19"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="18"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="19" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="19"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="48" x14ac:dyDescent="0.2">
       <c r="B98" s="43" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="18"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="19"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="24" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="26" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="19"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="26" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B69" r:id="rId1" display="http://www.who.int/substance_abuse/publications/global_alcohol_report/msb_gsr_2014_2.pdf?ua=1"/>
+    <hyperlink ref="B69" r:id="rId1" display="http://www.who.int/substance_abuse/publications/global_alcohol_report/msb_gsr_2014_2.pdf?ua=1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
